--- a/02-Vocabularies/SP-InformationRequirements.xlsx
+++ b/02-Vocabularies/SP-InformationRequirements.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPaMv1.0.0\02-Vocabularies\RPaM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estaromi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="208">
   <si>
     <t>Cardinality</t>
   </si>
@@ -45,9 +45,6 @@
     <t>e6b21867-95b5-4549-8180-f4673219b179</t>
   </si>
   <si>
-    <t>ON*</t>
-  </si>
-  <si>
     <t>{LEGISLATION}</t>
   </si>
   <si>
@@ -96,18 +93,12 @@
     <t>DATUM</t>
   </si>
   <si>
-    <t>{Subgroup</t>
-  </si>
-  <si>
     <t>Age</t>
   </si>
   <si>
     <t>CONSTRAINT</t>
   </si>
   <si>
-    <t>Subgroup}</t>
-  </si>
-  <si>
     <t>Group}</t>
   </si>
   <si>
@@ -462,12 +453,6 @@
     <t>Term Code</t>
   </si>
   <si>
-    <t>Concept label</t>
-  </si>
-  <si>
-    <t>Concept Description</t>
-  </si>
-  <si>
     <t>IR Element type</t>
   </si>
   <si>
@@ -495,12 +480,6 @@
     <t>EvidenceIdentifierType</t>
   </si>
   <si>
-    <t>eMandate ID</t>
-  </si>
-  <si>
-    <t>Default information required about the mandator or represented natural person.</t>
-  </si>
-  <si>
     <t>EvidenceType</t>
   </si>
   <si>
@@ -576,9 +555,6 @@
     <t>Type of evidence.</t>
   </si>
   <si>
-    <t>Information required about the represented natural person for which the age is relevant.</t>
-  </si>
-  <si>
     <t>Mandator and age</t>
   </si>
   <si>
@@ -603,9 +579,6 @@
     <t>Infomartion requirement data elements that a Service Provider may request to trigger the eAccess to one or more of its Services.</t>
   </si>
   <si>
-    <t>EU_RPAM_EMANDATE</t>
-  </si>
-  <si>
     <t>Default NP mandator</t>
   </si>
   <si>
@@ -621,13 +594,58 @@
     <t>Default LP mandatee</t>
   </si>
   <si>
-    <t>eMandates</t>
-  </si>
-  <si>
-    <t>Group of eMandates, including also possible delegated powers</t>
-  </si>
-  <si>
     <t>Default information required about the mandatee or representative legal person.</t>
+  </si>
+  <si>
+    <t>GROUP</t>
+  </si>
+  <si>
+    <t>CRITERION</t>
+  </si>
+  <si>
+    <t>SUBCRITERION</t>
+  </si>
+  <si>
+    <t>LEGISLATION</t>
+  </si>
+  <si>
+    <t>Mandates</t>
+  </si>
+  <si>
+    <t>Group of Mandates, including also possible delegated powers</t>
+  </si>
+  <si>
+    <t>EU_RPAM_Mandate</t>
+  </si>
+  <si>
+    <t>Mandate ID</t>
+  </si>
+  <si>
+    <t>CGroup</t>
+  </si>
+  <si>
+    <t>Default informatiGroup</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [Name of the NatiGroup</t>
+  </si>
+  <si>
+    <t>[DescriptiGroup</t>
+  </si>
+  <si>
+    <t>{LEGISLATIGroup</t>
+  </si>
+  <si>
+    <t>LEGISLATIGroup</t>
+  </si>
+  <si>
+    <t>InformatiGroup</t>
+  </si>
+  <si>
+    <t>{CRITERION</t>
+  </si>
+  <si>
+    <t>{SUBCRITERION</t>
   </si>
 </sst>
 </file>
@@ -1684,17 +1702,17 @@
   <sheetData>
     <row r="4" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1706,8 +1724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1839,34 +1857,34 @@
       <c r="O2" s="25"/>
       <c r="P2" s="25"/>
       <c r="Q2" s="25" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="R2" s="25" t="s">
-        <v>146</v>
+        <v>199</v>
       </c>
       <c r="S2" s="25" t="s">
-        <v>147</v>
+        <v>199</v>
       </c>
       <c r="T2" s="25" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="U2" s="25" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="V2" s="25" t="s">
         <v>0</v>
       </c>
       <c r="W2" s="25" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="X2" s="25" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Y2" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z2" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA2" s="25" t="s">
         <v>1</v>
@@ -1877,7 +1895,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
@@ -1901,12 +1919,14 @@
       <c r="P3" s="26"/>
       <c r="Q3" s="26"/>
       <c r="R3" s="26" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="S3" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="T3" s="30"/>
+        <v>200</v>
+      </c>
+      <c r="T3" s="30" t="s">
+        <v>192</v>
+      </c>
       <c r="U3" s="42"/>
       <c r="V3" s="27" t="s">
         <v>2</v>
@@ -1914,10 +1934,10 @@
       <c r="W3" s="26"/>
       <c r="X3" s="26"/>
       <c r="Y3" s="26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z3" s="28" t="s">
-        <v>33</v>
+        <v>199</v>
       </c>
       <c r="AA3" s="28"/>
     </row>
@@ -1929,7 +1949,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>14</v>
+        <v>207</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -1946,13 +1966,13 @@
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6" t="s">
-        <v>3</v>
+        <v>201</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>4</v>
+        <v>202</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>7</v>
+        <v>193</v>
       </c>
       <c r="U4" s="6"/>
       <c r="V4" s="19" t="s">
@@ -1974,7 +1994,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>8</v>
+        <v>203</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
@@ -1993,7 +2013,7 @@
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
       <c r="T5" s="12" t="s">
-        <v>2</v>
+        <v>204</v>
       </c>
       <c r="U5" s="10"/>
       <c r="V5" s="11" t="s">
@@ -2002,7 +2022,7 @@
       <c r="W5" s="41"/>
       <c r="X5" s="41"/>
       <c r="Y5" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z5" s="12" t="s">
         <v>2</v>
@@ -2015,7 +2035,7 @@
       <c r="A6" s="1"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -2034,16 +2054,16 @@
       <c r="R6" s="5"/>
       <c r="S6" s="13"/>
       <c r="T6" s="14" t="s">
-        <v>7</v>
+        <v>191</v>
       </c>
       <c r="U6" s="5"/>
       <c r="V6" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z6" s="5"/>
       <c r="AA6" s="5" t="s">
@@ -2055,7 +2075,7 @@
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -2082,7 +2102,7 @@
         <v>The given name of the person.</v>
       </c>
       <c r="T7" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U7" s="15"/>
       <c r="V7" s="14">
@@ -2098,7 +2118,7 @@
       </c>
       <c r="Y7" s="15"/>
       <c r="Z7" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AA7" s="5"/>
     </row>
@@ -2107,7 +2127,7 @@
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -2134,7 +2154,7 @@
         <v>The given name of the person.</v>
       </c>
       <c r="T8" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U8" s="15"/>
       <c r="V8" s="14">
@@ -2150,7 +2170,7 @@
       </c>
       <c r="Y8" s="15"/>
       <c r="Z8" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AA8" s="5"/>
     </row>
@@ -2158,7 +2178,7 @@
       <c r="A9" s="1"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -2188,7 +2208,7 @@
     <row r="10" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="26" t="s">
-        <v>29</v>
+        <v>192</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -2221,7 +2241,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
@@ -2245,12 +2265,14 @@
       <c r="P11" s="26"/>
       <c r="Q11" s="26"/>
       <c r="R11" s="26" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="S11" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="T11" s="30"/>
+        <v>200</v>
+      </c>
+      <c r="T11" s="30" t="s">
+        <v>192</v>
+      </c>
       <c r="U11" s="42"/>
       <c r="V11" s="27" t="s">
         <v>2</v>
@@ -2259,7 +2281,7 @@
       <c r="X11" s="26"/>
       <c r="Y11" s="26"/>
       <c r="Z11" s="28" t="s">
-        <v>33</v>
+        <v>199</v>
       </c>
       <c r="AA11" s="28"/>
     </row>
@@ -2271,7 +2293,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>14</v>
+        <v>207</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -2288,13 +2310,13 @@
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="6" t="s">
-        <v>3</v>
+        <v>201</v>
       </c>
       <c r="S12" s="6" t="s">
-        <v>4</v>
+        <v>202</v>
       </c>
       <c r="T12" s="8" t="s">
-        <v>7</v>
+        <v>193</v>
       </c>
       <c r="U12" s="6"/>
       <c r="V12" s="19" t="s">
@@ -2314,7 +2336,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>8</v>
+        <v>203</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -2333,7 +2355,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="12" t="s">
-        <v>2</v>
+        <v>204</v>
       </c>
       <c r="U13" s="10"/>
       <c r="V13" s="11" t="s">
@@ -2353,7 +2375,7 @@
       <c r="A14" s="1"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -2372,11 +2394,11 @@
       <c r="R14" s="5"/>
       <c r="S14" s="13"/>
       <c r="T14" s="14" t="s">
-        <v>7</v>
+        <v>191</v>
       </c>
       <c r="U14" s="5"/>
       <c r="V14" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
@@ -2391,7 +2413,7 @@
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -2418,7 +2440,7 @@
         <v>The given name of the person.</v>
       </c>
       <c r="T15" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U15" s="15"/>
       <c r="V15" s="14">
@@ -2434,7 +2456,7 @@
       </c>
       <c r="Y15" s="15"/>
       <c r="Z15" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AA15" s="5"/>
     </row>
@@ -2443,7 +2465,7 @@
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -2466,11 +2488,11 @@
         <v>Family name</v>
       </c>
       <c r="S16" s="5" t="str">
-        <f>'IR-DED'!$D$7</f>
-        <v>The given name of the person.</v>
+        <f>'IR-DED'!$D$8</f>
+        <v>The family name of the person.</v>
       </c>
       <c r="T16" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U16" s="15"/>
       <c r="V16" s="14">
@@ -2486,7 +2508,7 @@
       </c>
       <c r="Y16" s="15"/>
       <c r="Z16" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AA16" s="5"/>
     </row>
@@ -2494,7 +2516,7 @@
       <c r="A17" s="1"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -2524,7 +2546,7 @@
     <row r="18" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="26" t="s">
-        <v>29</v>
+        <v>192</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -2557,7 +2579,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="C19" s="26"/>
       <c r="D19" s="26"/>
@@ -2581,12 +2603,14 @@
       <c r="P19" s="26"/>
       <c r="Q19" s="26"/>
       <c r="R19" s="26" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="S19" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="T19" s="30"/>
+        <v>205</v>
+      </c>
+      <c r="T19" s="30" t="s">
+        <v>192</v>
+      </c>
       <c r="U19" s="42"/>
       <c r="V19" s="27" t="s">
         <v>2</v>
@@ -2595,7 +2619,7 @@
       <c r="X19" s="26"/>
       <c r="Y19" s="26"/>
       <c r="Z19" s="28" t="s">
-        <v>33</v>
+        <v>199</v>
       </c>
       <c r="AA19" s="28"/>
     </row>
@@ -2607,7 +2631,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>14</v>
+        <v>207</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -2624,13 +2648,13 @@
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
       <c r="R20" s="6" t="s">
-        <v>3</v>
+        <v>201</v>
       </c>
       <c r="S20" s="6" t="s">
-        <v>4</v>
+        <v>202</v>
       </c>
       <c r="T20" s="8" t="s">
-        <v>7</v>
+        <v>193</v>
       </c>
       <c r="U20" s="6"/>
       <c r="V20" s="19" t="s">
@@ -2650,7 +2674,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>8</v>
+        <v>203</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -2669,7 +2693,7 @@
       <c r="R21" s="10"/>
       <c r="S21" s="10"/>
       <c r="T21" s="12" t="s">
-        <v>2</v>
+        <v>204</v>
       </c>
       <c r="U21" s="10"/>
       <c r="V21" s="11" t="s">
@@ -2689,7 +2713,7 @@
       <c r="A22" s="1"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -2708,11 +2732,11 @@
       <c r="R22" s="5"/>
       <c r="S22" s="13"/>
       <c r="T22" s="14" t="s">
-        <v>7</v>
+        <v>191</v>
       </c>
       <c r="U22" s="5"/>
       <c r="V22" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W22" s="5"/>
       <c r="X22" s="5"/>
@@ -2727,7 +2751,7 @@
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -2754,7 +2778,7 @@
         <v>The given name of the person.</v>
       </c>
       <c r="T23" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U23" s="15"/>
       <c r="V23" s="14">
@@ -2770,7 +2794,7 @@
       </c>
       <c r="Y23" s="15"/>
       <c r="Z23" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AA23" s="5"/>
     </row>
@@ -2779,7 +2803,7 @@
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -2802,11 +2826,11 @@
         <v>Family name</v>
       </c>
       <c r="S24" s="5" t="str">
-        <f>'IR-DED'!$D$7</f>
-        <v>The given name of the person.</v>
+        <f>'IR-DED'!$D$8</f>
+        <v>The family name of the person.</v>
       </c>
       <c r="T24" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U24" s="15"/>
       <c r="V24" s="14">
@@ -2822,7 +2846,7 @@
       </c>
       <c r="Y24" s="15"/>
       <c r="Z24" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AA24" s="5"/>
     </row>
@@ -2831,7 +2855,7 @@
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -2849,9 +2873,9 @@
       <c r="R25" s="5"/>
       <c r="S25" s="5"/>
       <c r="T25" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="U25" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="U25" s="14"/>
       <c r="V25" s="14"/>
       <c r="W25" s="5"/>
       <c r="X25" s="5"/>
@@ -2865,7 +2889,7 @@
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
@@ -2891,7 +2915,7 @@
         <v>The age of the person expressed as the positive integer number of years.</v>
       </c>
       <c r="T26" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U26" s="5"/>
       <c r="V26" s="14">
@@ -2907,7 +2931,7 @@
       </c>
       <c r="Y26" s="20"/>
       <c r="Z26" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AA26" s="5"/>
     </row>
@@ -2917,7 +2941,7 @@
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F27" s="31"/>
       <c r="G27" s="31"/>
@@ -2943,13 +2967,13 @@
         <v>The minimum age required expressed in years.</v>
       </c>
       <c r="T27" s="32" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="U27" s="43">
         <v>16</v>
       </c>
       <c r="V27" s="33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W27" s="31" t="str">
         <f>'CONSTRAINTS-DED'!$E$7</f>
@@ -2961,7 +2985,7 @@
       </c>
       <c r="Y27" s="34"/>
       <c r="Z27" s="31" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AA27" s="31"/>
     </row>
@@ -2970,7 +2994,7 @@
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -3000,7 +3024,7 @@
       <c r="A29" s="1"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -3030,7 +3054,7 @@
     <row r="30" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="26" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -3063,7 +3087,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C31" s="26"/>
       <c r="D31" s="26"/>
@@ -3087,12 +3111,14 @@
       <c r="P31" s="26"/>
       <c r="Q31" s="26"/>
       <c r="R31" s="26" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="S31" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="T31" s="30"/>
+        <v>188</v>
+      </c>
+      <c r="T31" s="30" t="s">
+        <v>192</v>
+      </c>
       <c r="U31" s="42"/>
       <c r="V31" s="27" t="s">
         <v>2</v>
@@ -3101,7 +3127,7 @@
       <c r="X31" s="26"/>
       <c r="Y31" s="26"/>
       <c r="Z31" s="28" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="AA31" s="28"/>
     </row>
@@ -3113,7 +3139,7 @@
         <v>2</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -3136,7 +3162,7 @@
         <v>4</v>
       </c>
       <c r="T32" s="8" t="s">
-        <v>7</v>
+        <v>193</v>
       </c>
       <c r="U32" s="6"/>
       <c r="V32" s="19" t="s">
@@ -3156,7 +3182,7 @@
         <v>2</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
@@ -3175,7 +3201,7 @@
       <c r="R33" s="10"/>
       <c r="S33" s="10"/>
       <c r="T33" s="12" t="s">
-        <v>2</v>
+        <v>194</v>
       </c>
       <c r="U33" s="10"/>
       <c r="V33" s="11" t="s">
@@ -3195,7 +3221,7 @@
       <c r="A34" s="1"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -3214,11 +3240,11 @@
       <c r="R34" s="5"/>
       <c r="S34" s="13"/>
       <c r="T34" s="14" t="s">
-        <v>7</v>
+        <v>191</v>
       </c>
       <c r="U34" s="5"/>
       <c r="V34" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W34" s="5"/>
       <c r="X34" s="5"/>
@@ -3233,7 +3259,7 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -3260,7 +3286,7 @@
         <v>The name of the organisation as registered in an official registry.</v>
       </c>
       <c r="T35" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U35" s="15"/>
       <c r="V35" s="14">
@@ -3276,7 +3302,7 @@
       </c>
       <c r="Y35" s="15"/>
       <c r="Z35" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AA35" s="5"/>
     </row>
@@ -3285,7 +3311,7 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -3312,7 +3338,7 @@
         <v>The identifier number of the organisation. E.g. the BRIS EUID, a LEI number, etc.</v>
       </c>
       <c r="T36" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U36" s="15"/>
       <c r="V36" s="14">
@@ -3328,7 +3354,7 @@
       </c>
       <c r="Y36" s="15"/>
       <c r="Z36" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AA36" s="5"/>
     </row>
@@ -3336,7 +3362,7 @@
       <c r="A37" s="1"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -3367,7 +3393,7 @@
       <c r="A38" s="1"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -3384,17 +3410,17 @@
       <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
       <c r="R38" s="5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="S38" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="T38" s="14" t="s">
-        <v>7</v>
+        <v>191</v>
       </c>
       <c r="U38" s="5"/>
       <c r="V38" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W38" s="5"/>
       <c r="X38" s="5"/>
@@ -3409,7 +3435,7 @@
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -3436,10 +3462,10 @@
         <v>The Identifier of an evidence.</v>
       </c>
       <c r="T39" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U39" s="45" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="V39" s="17">
         <v>1</v>
@@ -3454,7 +3480,7 @@
       </c>
       <c r="Y39" s="20"/>
       <c r="Z39" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AA39" s="5"/>
     </row>
@@ -3463,7 +3489,7 @@
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
@@ -3490,13 +3516,13 @@
         <v>The URL where to download an evidence from.</v>
       </c>
       <c r="T40" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U40" s="45" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="V40" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W40" s="5" t="str">
         <f>'IR-DED'!$E$20</f>
@@ -3508,7 +3534,7 @@
       </c>
       <c r="Y40" s="20"/>
       <c r="Z40" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AA40" s="5"/>
     </row>
@@ -3517,7 +3543,7 @@
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E41" s="31"/>
       <c r="F41" s="31"/>
@@ -3544,10 +3570,10 @@
         <v>Type of evidence.</v>
       </c>
       <c r="T41" s="32" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="U41" s="32" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="V41" s="33">
         <v>1</v>
@@ -3562,7 +3588,7 @@
       </c>
       <c r="Y41" s="34"/>
       <c r="Z41" s="31" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AA41" s="31"/>
     </row>
@@ -3571,7 +3597,7 @@
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E42" s="31"/>
       <c r="F42" s="31"/>
@@ -3598,13 +3624,13 @@
         <v>The version identifier of the model (or template) used to express the evidence.</v>
       </c>
       <c r="T42" s="32" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="U42" s="43" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="V42" s="33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W42" s="31" t="str">
         <f>'CONSTRAINTS-DED'!$E$17</f>
@@ -3616,7 +3642,7 @@
       </c>
       <c r="Y42" s="34"/>
       <c r="Z42" s="31" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AA42" s="31"/>
     </row>
@@ -3624,7 +3650,7 @@
       <c r="A43" s="1"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -3654,7 +3680,7 @@
     <row r="44" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="26" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -3687,7 +3713,7 @@
         <v>5</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C45" s="26"/>
       <c r="D45" s="26"/>
@@ -3711,12 +3737,14 @@
       <c r="P45" s="26"/>
       <c r="Q45" s="26"/>
       <c r="R45" s="26" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="S45" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="T45" s="30"/>
+        <v>190</v>
+      </c>
+      <c r="T45" s="30" t="s">
+        <v>192</v>
+      </c>
       <c r="U45" s="42"/>
       <c r="V45" s="27" t="s">
         <v>2</v>
@@ -3725,7 +3753,7 @@
       <c r="X45" s="26"/>
       <c r="Y45" s="26"/>
       <c r="Z45" s="28" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="AA45" s="28"/>
     </row>
@@ -3737,7 +3765,7 @@
         <v>2</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
@@ -3760,7 +3788,7 @@
         <v>4</v>
       </c>
       <c r="T46" s="8" t="s">
-        <v>7</v>
+        <v>193</v>
       </c>
       <c r="U46" s="6"/>
       <c r="V46" s="19" t="s">
@@ -3780,7 +3808,7 @@
         <v>2</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
@@ -3799,7 +3827,7 @@
       <c r="R47" s="10"/>
       <c r="S47" s="10"/>
       <c r="T47" s="12" t="s">
-        <v>2</v>
+        <v>194</v>
       </c>
       <c r="U47" s="10"/>
       <c r="V47" s="11" t="s">
@@ -3819,7 +3847,7 @@
       <c r="A48" s="1"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -3838,11 +3866,11 @@
       <c r="R48" s="5"/>
       <c r="S48" s="13"/>
       <c r="T48" s="14" t="s">
-        <v>7</v>
+        <v>191</v>
       </c>
       <c r="U48" s="5"/>
       <c r="V48" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W48" s="5"/>
       <c r="X48" s="5"/>
@@ -3857,7 +3885,7 @@
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
@@ -3884,7 +3912,7 @@
         <v>The name of the organisation as registered in an official registry.</v>
       </c>
       <c r="T49" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U49" s="15"/>
       <c r="V49" s="14">
@@ -3900,7 +3928,7 @@
       </c>
       <c r="Y49" s="15"/>
       <c r="Z49" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AA49" s="5"/>
     </row>
@@ -3909,7 +3937,7 @@
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
@@ -3936,7 +3964,7 @@
         <v>The identifier number of the organisation. E.g. the BRIS EUID, a LEI number, etc.</v>
       </c>
       <c r="T50" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U50" s="15"/>
       <c r="V50" s="14">
@@ -3952,7 +3980,7 @@
       </c>
       <c r="Y50" s="15"/>
       <c r="Z50" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AA50" s="5"/>
     </row>
@@ -3960,7 +3988,7 @@
       <c r="A51" s="1"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
@@ -3991,7 +4019,7 @@
       <c r="A52" s="1"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -4008,17 +4036,17 @@
       <c r="P52" s="5"/>
       <c r="Q52" s="5"/>
       <c r="R52" s="5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="S52" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="T52" s="14" t="s">
-        <v>7</v>
+        <v>191</v>
       </c>
       <c r="U52" s="5"/>
       <c r="V52" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W52" s="5"/>
       <c r="X52" s="5"/>
@@ -4033,7 +4061,7 @@
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
@@ -4060,10 +4088,10 @@
         <v>The Identifier of an evidence.</v>
       </c>
       <c r="T53" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U53" s="45" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="V53" s="17">
         <v>1</v>
@@ -4078,7 +4106,7 @@
       </c>
       <c r="Y53" s="20"/>
       <c r="Z53" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AA53" s="5"/>
     </row>
@@ -4087,7 +4115,7 @@
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
@@ -4114,13 +4142,13 @@
         <v>The URL where to download an evidence from.</v>
       </c>
       <c r="T54" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U54" s="45" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="V54" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W54" s="5" t="str">
         <f>'IR-DED'!$E$20</f>
@@ -4132,7 +4160,7 @@
       </c>
       <c r="Y54" s="20"/>
       <c r="Z54" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AA54" s="5"/>
     </row>
@@ -4141,7 +4169,7 @@
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E55" s="31"/>
       <c r="F55" s="31"/>
@@ -4168,10 +4196,10 @@
         <v>Type of evidence.</v>
       </c>
       <c r="T55" s="32" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="U55" s="32" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="V55" s="33">
         <v>1</v>
@@ -4186,7 +4214,7 @@
       </c>
       <c r="Y55" s="34"/>
       <c r="Z55" s="31" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AA55" s="31"/>
     </row>
@@ -4195,7 +4223,7 @@
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E56" s="31"/>
       <c r="F56" s="31"/>
@@ -4222,13 +4250,13 @@
         <v>The version identifier of the model (or template) used to express the evidence.</v>
       </c>
       <c r="T56" s="32" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="U56" s="43" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="V56" s="33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W56" s="31" t="str">
         <f>'CONSTRAINTS-DED'!$E$17</f>
@@ -4240,7 +4268,7 @@
       </c>
       <c r="Y56" s="34"/>
       <c r="Z56" s="31" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AA56" s="31"/>
     </row>
@@ -4248,7 +4276,7 @@
       <c r="A57" s="1"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
@@ -4278,7 +4306,7 @@
     <row r="58" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="26" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -4311,7 +4339,7 @@
         <v>6</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C59" s="26"/>
       <c r="D59" s="26"/>
@@ -4335,12 +4363,14 @@
       <c r="P59" s="26"/>
       <c r="Q59" s="26"/>
       <c r="R59" s="26" t="s">
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="S59" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="T59" s="30"/>
+        <v>173</v>
+      </c>
+      <c r="T59" s="30" t="s">
+        <v>192</v>
+      </c>
       <c r="U59" s="42"/>
       <c r="V59" s="27" t="s">
         <v>2</v>
@@ -4349,7 +4379,7 @@
       <c r="X59" s="26"/>
       <c r="Y59" s="26"/>
       <c r="Z59" s="28" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="AA59" s="28"/>
     </row>
@@ -4361,7 +4391,7 @@
         <v>2</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
@@ -4384,7 +4414,7 @@
         <v>4</v>
       </c>
       <c r="T60" s="8" t="s">
-        <v>7</v>
+        <v>193</v>
       </c>
       <c r="U60" s="6"/>
       <c r="V60" s="19" t="s">
@@ -4404,7 +4434,7 @@
         <v>2</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D61" s="10"/>
       <c r="E61" s="10"/>
@@ -4423,7 +4453,7 @@
       <c r="R61" s="10"/>
       <c r="S61" s="10"/>
       <c r="T61" s="12" t="s">
-        <v>2</v>
+        <v>194</v>
       </c>
       <c r="U61" s="10"/>
       <c r="V61" s="11" t="s">
@@ -4443,7 +4473,7 @@
       <c r="A62" s="1"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -4462,11 +4492,11 @@
       <c r="R62" s="5"/>
       <c r="S62" s="13"/>
       <c r="T62" s="14" t="s">
-        <v>7</v>
+        <v>191</v>
       </c>
       <c r="U62" s="5"/>
       <c r="V62" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W62" s="5"/>
       <c r="X62" s="5"/>
@@ -4481,7 +4511,7 @@
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
@@ -4508,10 +4538,10 @@
         <v>The Identifier of an evidence.</v>
       </c>
       <c r="T63" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U63" s="45" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="V63" s="17">
         <v>1</v>
@@ -4526,7 +4556,7 @@
       </c>
       <c r="Y63" s="20"/>
       <c r="Z63" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AA63" s="5"/>
     </row>
@@ -4535,7 +4565,7 @@
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
@@ -4562,13 +4592,13 @@
         <v>The URL where to download an evidence from.</v>
       </c>
       <c r="T64" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U64" s="45" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="V64" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W64" s="5" t="str">
         <f>'IR-DED'!$E$20</f>
@@ -4580,7 +4610,7 @@
       </c>
       <c r="Y64" s="20"/>
       <c r="Z64" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AA64" s="5"/>
     </row>
@@ -4589,7 +4619,7 @@
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E65" s="31"/>
       <c r="F65" s="31"/>
@@ -4616,10 +4646,10 @@
         <v>Type of evidence.</v>
       </c>
       <c r="T65" s="32" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="U65" s="32" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="V65" s="33">
         <v>1</v>
@@ -4634,7 +4664,7 @@
       </c>
       <c r="Y65" s="34"/>
       <c r="Z65" s="31" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AA65" s="31"/>
     </row>
@@ -4643,7 +4673,7 @@
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E66" s="31"/>
       <c r="F66" s="31"/>
@@ -4670,13 +4700,13 @@
         <v>The version identifier of the model (or template) used to express the evidence.</v>
       </c>
       <c r="T66" s="32" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="U66" s="43" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="V66" s="33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W66" s="31" t="str">
         <f>'CONSTRAINTS-DED'!$E$17</f>
@@ -4688,7 +4718,7 @@
       </c>
       <c r="Y66" s="34"/>
       <c r="Z66" s="31" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AA66" s="31"/>
     </row>
@@ -4696,7 +4726,7 @@
       <c r="A67" s="1"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
@@ -4726,7 +4756,7 @@
     <row r="68" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="26" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -4790,33 +4820,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B3" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="35" t="s">
-        <v>37</v>
-      </c>
       <c r="D3" s="35" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H3" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -4824,16 +4854,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
         <v>36</v>
       </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" t="s">
-        <v>39</v>
-      </c>
       <c r="F4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -4841,16 +4871,16 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -4858,22 +4888,22 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -4881,22 +4911,22 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -4904,22 +4934,22 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -4927,22 +4957,22 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -4950,22 +4980,22 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
         <v>59</v>
       </c>
-      <c r="C10" t="s">
-        <v>62</v>
-      </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -4973,22 +5003,22 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -4996,25 +5026,25 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H12" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -5022,25 +5052,25 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" t="s">
         <v>69</v>
       </c>
-      <c r="C13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" t="s">
-        <v>72</v>
-      </c>
       <c r="F13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -5048,22 +5078,22 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" t="s">
         <v>86</v>
       </c>
-      <c r="C14" t="s">
+      <c r="F14" t="s">
         <v>87</v>
       </c>
-      <c r="D14" t="s">
-        <v>88</v>
-      </c>
-      <c r="E14" t="s">
-        <v>89</v>
-      </c>
-      <c r="F14" t="s">
-        <v>90</v>
-      </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -5071,22 +5101,22 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" t="s">
         <v>91</v>
       </c>
-      <c r="C15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" t="s">
-        <v>94</v>
-      </c>
       <c r="F15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -5094,22 +5124,22 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" t="s">
         <v>95</v>
       </c>
-      <c r="C16" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" t="s">
-        <v>97</v>
-      </c>
-      <c r="E16" t="s">
-        <v>98</v>
-      </c>
       <c r="F16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -5117,22 +5147,22 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F17" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -5140,25 +5170,25 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" t="s">
         <v>102</v>
       </c>
-      <c r="C18" t="s">
+      <c r="F18" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" t="s">
         <v>103</v>
-      </c>
-      <c r="D18" t="s">
-        <v>104</v>
-      </c>
-      <c r="E18" t="s">
-        <v>105</v>
-      </c>
-      <c r="F18" t="s">
-        <v>84</v>
-      </c>
-      <c r="G18" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -5166,25 +5196,25 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C19" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D19" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="E19" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F19" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G19" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="H19" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -5192,22 +5222,22 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C20" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="E20" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="F20" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="G20" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -5239,37 +5269,37 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B3" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="37" t="s">
-        <v>37</v>
-      </c>
       <c r="D3" s="37" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G3" s="37" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H3" s="38" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I3" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -5277,13 +5307,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -5291,13 +5321,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" t="s">
         <v>109</v>
-      </c>
-      <c r="C5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -5305,13 +5335,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -5319,25 +5349,25 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D7" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -5345,22 +5375,22 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D8" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="E8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -5368,22 +5398,22 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D9" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -5391,22 +5421,22 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D10" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -5414,22 +5444,22 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D11" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -5437,22 +5467,22 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D12" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E12" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -5460,22 +5490,22 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D13" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -5483,22 +5513,22 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D14" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E14" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G14" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -5506,22 +5536,22 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D15" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F15" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G15" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -5529,28 +5559,28 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C16" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" t="s">
+        <v>176</v>
+      </c>
+      <c r="E16" t="s">
+        <v>152</v>
+      </c>
+      <c r="F16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" t="s">
         <v>153</v>
       </c>
-      <c r="D16" t="s">
-        <v>183</v>
-      </c>
-      <c r="E16" t="s">
-        <v>159</v>
-      </c>
-      <c r="F16" t="s">
-        <v>84</v>
-      </c>
-      <c r="G16" t="s">
-        <v>160</v>
-      </c>
       <c r="H16" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="I16" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -5558,25 +5588,25 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C17" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D17" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E17" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G17" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="H17" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">

--- a/02-Vocabularies/SP-InformationRequirements.xlsx
+++ b/02-Vocabularies/SP-InformationRequirements.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estaromi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPaM\02-Vocabularies\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="210">
   <si>
     <t>Cardinality</t>
   </si>
@@ -624,9 +624,6 @@
     <t>CGroup</t>
   </si>
   <si>
-    <t>Default informatiGroup</t>
-  </si>
-  <si>
     <t xml:space="preserve"> [Name of the NatiGroup</t>
   </si>
   <si>
@@ -639,13 +636,22 @@
     <t>LEGISLATIGroup</t>
   </si>
   <si>
-    <t>InformatiGroup</t>
-  </si>
-  <si>
     <t>{CRITERION</t>
   </si>
   <si>
     <t>{SUBCRITERION</t>
+  </si>
+  <si>
+    <t>Default information required about the mandator or represented natural person.</t>
+  </si>
+  <si>
+    <t>Information required about the represented natural person for which the age is relevant.</t>
+  </si>
+  <si>
+    <t>Concept label</t>
+  </si>
+  <si>
+    <t>Concept Description</t>
   </si>
 </sst>
 </file>
@@ -1724,8 +1730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1860,10 +1866,10 @@
         <v>142</v>
       </c>
       <c r="R2" s="25" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="S2" s="25" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="T2" s="25" t="s">
         <v>143</v>
@@ -1895,7 +1901,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
@@ -1922,7 +1928,7 @@
         <v>185</v>
       </c>
       <c r="S3" s="26" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="T3" s="30" t="s">
         <v>192</v>
@@ -1949,7 +1955,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -1966,10 +1972,10 @@
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="S4" s="6" t="s">
         <v>201</v>
-      </c>
-      <c r="S4" s="6" t="s">
-        <v>202</v>
       </c>
       <c r="T4" s="8" t="s">
         <v>193</v>
@@ -1994,7 +2000,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
@@ -2013,7 +2019,7 @@
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
       <c r="T5" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="U5" s="10"/>
       <c r="V5" s="11" t="s">
@@ -2241,7 +2247,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
@@ -2268,7 +2274,7 @@
         <v>186</v>
       </c>
       <c r="S11" s="26" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="T11" s="30" t="s">
         <v>192</v>
@@ -2293,7 +2299,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -2310,10 +2316,10 @@
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="S12" s="6" t="s">
         <v>201</v>
-      </c>
-      <c r="S12" s="6" t="s">
-        <v>202</v>
       </c>
       <c r="T12" s="8" t="s">
         <v>193</v>
@@ -2336,7 +2342,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -2355,7 +2361,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="U13" s="10"/>
       <c r="V13" s="11" t="s">
@@ -2579,7 +2585,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C19" s="26"/>
       <c r="D19" s="26"/>
@@ -2606,7 +2612,7 @@
         <v>177</v>
       </c>
       <c r="S19" s="26" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="T19" s="30" t="s">
         <v>192</v>
@@ -2631,7 +2637,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -2648,10 +2654,10 @@
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
       <c r="R20" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="S20" s="6" t="s">
         <v>201</v>
-      </c>
-      <c r="S20" s="6" t="s">
-        <v>202</v>
       </c>
       <c r="T20" s="8" t="s">
         <v>193</v>
@@ -2674,7 +2680,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -2693,7 +2699,7 @@
       <c r="R21" s="10"/>
       <c r="S21" s="10"/>
       <c r="T21" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="U21" s="10"/>
       <c r="V21" s="11" t="s">

--- a/02-Vocabularies/SP-InformationRequirements.xlsx
+++ b/02-Vocabularies/SP-InformationRequirements.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="212">
   <si>
     <t>Cardinality</t>
   </si>
@@ -652,6 +652,12 @@
   </si>
   <si>
     <t>Concept Description</t>
+  </si>
+  <si>
+    <t>12e1267c-af86-451a-853f-c59c7ef62c04</t>
+  </si>
+  <si>
+    <t>4e015922-a775-47a1-9b63-b1e8ae7a6c27</t>
   </si>
 </sst>
 </file>
@@ -1229,7 +1235,7 @@
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1357,6 +1363,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1730,8 +1739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Y25" sqref="Y25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2746,7 +2755,9 @@
       </c>
       <c r="W22" s="5"/>
       <c r="X22" s="5"/>
-      <c r="Y22" s="16"/>
+      <c r="Y22" s="16" t="s">
+        <v>210</v>
+      </c>
       <c r="Z22" s="5"/>
       <c r="AA22" s="5" t="s">
         <v>2</v>
@@ -2885,7 +2896,9 @@
       <c r="V25" s="14"/>
       <c r="W25" s="5"/>
       <c r="X25" s="5"/>
-      <c r="Y25" s="20"/>
+      <c r="Y25" s="47" t="s">
+        <v>211</v>
+      </c>
       <c r="Z25" s="5"/>
       <c r="AA25" s="5"/>
     </row>

--- a/02-Vocabularies/SP-InformationRequirements.xlsx
+++ b/02-Vocabularies/SP-InformationRequirements.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="212">
   <si>
     <t>Cardinality</t>
   </si>
@@ -1235,7 +1235,7 @@
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1366,6 +1366,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1737,10 +1740,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC68"/>
+  <dimension ref="A1:AC70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="Y25" sqref="Y25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2768,7 +2771,7 @@
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -2782,47 +2785,28 @@
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
-      <c r="Q23" s="5" t="str">
-        <f>'IR-DED'!$B$7</f>
-        <v>GIVEN_NAME</v>
-      </c>
-      <c r="R23" s="5" t="str">
-        <f>'IR-DED'!$C$7</f>
-        <v>Given Name</v>
-      </c>
-      <c r="S23" s="5" t="str">
-        <f>'IR-DED'!$D$7</f>
-        <v>The given name of the person.</v>
-      </c>
-      <c r="T23" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="U23" s="15"/>
-      <c r="V23" s="14">
-        <v>1</v>
-      </c>
-      <c r="W23" s="5" t="str">
-        <f>'IR-DED'!$E$7</f>
-        <v>GivenNameType</v>
-      </c>
-      <c r="X23" s="5" t="str">
-        <f>'IR-DED'!$F$7</f>
-        <v>ccts:Text</v>
-      </c>
-      <c r="Y23" s="15"/>
-      <c r="Z23" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
     </row>
     <row r="24" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="5"/>
+      <c r="E24" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -2835,16 +2819,16 @@
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
       <c r="Q24" s="5" t="str">
-        <f>'IR-DED'!$B$8</f>
-        <v>FAMILY_NAME</v>
+        <f>'IR-DED'!$B$7</f>
+        <v>GIVEN_NAME</v>
       </c>
       <c r="R24" s="5" t="str">
-        <f>'IR-DED'!$C$8</f>
-        <v>Family name</v>
+        <f>'IR-DED'!$C$7</f>
+        <v>Given Name</v>
       </c>
       <c r="S24" s="5" t="str">
-        <f>'IR-DED'!$D$8</f>
-        <v>The family name of the person.</v>
+        <f>'IR-DED'!$D$7</f>
+        <v>The given name of the person.</v>
       </c>
       <c r="T24" s="29" t="s">
         <v>22</v>
@@ -2854,11 +2838,11 @@
         <v>1</v>
       </c>
       <c r="W24" s="5" t="str">
-        <f>'IR-DED'!$E$8</f>
-        <v>FamilyNameType</v>
+        <f>'IR-DED'!$E$7</f>
+        <v>GivenNameType</v>
       </c>
       <c r="X24" s="5" t="str">
-        <f>'IR-DED'!$F$8</f>
+        <f>'IR-DED'!$F$7</f>
         <v>ccts:Text</v>
       </c>
       <c r="Y24" s="15"/>
@@ -2868,13 +2852,13 @@
       <c r="AA24" s="5"/>
     </row>
     <row r="25" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
+      <c r="A25" s="48"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -2886,30 +2870,47 @@
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="U25" s="14"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="47" t="s">
-        <v>211</v>
-      </c>
-      <c r="Z25" s="5"/>
+      <c r="Q25" s="5" t="str">
+        <f>'IR-DED'!$B$8</f>
+        <v>FAMILY_NAME</v>
+      </c>
+      <c r="R25" s="5" t="str">
+        <f>'IR-DED'!$C$8</f>
+        <v>Family name</v>
+      </c>
+      <c r="S25" s="5" t="str">
+        <f>'IR-DED'!$D$8</f>
+        <v>The family name of the person.</v>
+      </c>
+      <c r="T25" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="U25" s="15"/>
+      <c r="V25" s="14">
+        <v>1</v>
+      </c>
+      <c r="W25" s="5" t="str">
+        <f>'IR-DED'!$E$8</f>
+        <v>FamilyNameType</v>
+      </c>
+      <c r="X25" s="5" t="str">
+        <f>'IR-DED'!$F$8</f>
+        <v>ccts:Text</v>
+      </c>
+      <c r="Y25" s="15"/>
+      <c r="Z25" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AA25" s="5"/>
     </row>
     <row r="26" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="D26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -2921,101 +2922,61 @@
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
-      <c r="Q26" s="5" t="str">
-        <f>'IR-DED'!$B$12</f>
-        <v>AGE</v>
-      </c>
-      <c r="R26" s="5" t="str">
-        <f>'IR-DED'!$C$12</f>
-        <v>Age</v>
-      </c>
-      <c r="S26" s="5" t="str">
-        <f>'IR-DED'!$D$12</f>
-        <v>The age of the person expressed as the positive integer number of years.</v>
-      </c>
-      <c r="T26" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="U26" s="5"/>
-      <c r="V26" s="14">
-        <v>1</v>
-      </c>
-      <c r="W26" s="5" t="str">
-        <f>'IR-DED'!$E$12</f>
-        <v>AgeType</v>
-      </c>
-      <c r="X26" s="5" t="str">
-        <f>'IR-DED'!$F$12</f>
-        <v>ccts:Quantity</v>
-      </c>
-      <c r="Y26" s="20"/>
-      <c r="Z26" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="5"/>
       <c r="AA26" s="5"/>
     </row>
     <row r="27" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="31" t="str">
-        <f>'CONSTRAINTS-DED'!$B$7</f>
-        <v>ABOVE_AGE</v>
-      </c>
-      <c r="R27" s="31" t="str">
-        <f>'CONSTRAINTS-DED'!$C$7</f>
-        <v>Above Age</v>
-      </c>
-      <c r="S27" s="31" t="str">
-        <f>'CONSTRAINTS-DED'!$D$7</f>
-        <v>The minimum age required expressed in years.</v>
-      </c>
-      <c r="T27" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="U27" s="43">
-        <v>16</v>
-      </c>
-      <c r="V27" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="W27" s="31" t="str">
-        <f>'CONSTRAINTS-DED'!$E$7</f>
-        <v>AboveAgeType</v>
-      </c>
-      <c r="X27" s="31" t="str">
-        <f>'CONSTRAINTS-DED'!$F$7</f>
-        <v>ccts:Quantity</v>
-      </c>
-      <c r="Y27" s="34"/>
-      <c r="Z27" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA27" s="31"/>
+      <c r="D27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
     </row>
     <row r="28" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -3027,311 +2988,328 @@
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="14"/>
+      <c r="Q28" s="5" t="str">
+        <f>'IR-DED'!$B$12</f>
+        <v>AGE</v>
+      </c>
+      <c r="R28" s="5" t="str">
+        <f>'IR-DED'!$C$12</f>
+        <v>Age</v>
+      </c>
+      <c r="S28" s="5" t="str">
+        <f>'IR-DED'!$D$12</f>
+        <v>The age of the person expressed as the positive integer number of years.</v>
+      </c>
+      <c r="T28" s="14" t="s">
+        <v>22</v>
+      </c>
       <c r="U28" s="5"/>
-      <c r="V28" s="14"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
+      <c r="V28" s="14">
+        <v>1</v>
+      </c>
+      <c r="W28" s="5" t="str">
+        <f>'IR-DED'!$E$12</f>
+        <v>AgeType</v>
+      </c>
+      <c r="X28" s="5" t="str">
+        <f>'IR-DED'!$F$12</f>
+        <v>ccts:Quantity</v>
+      </c>
+      <c r="Y28" s="20"/>
+      <c r="Z28" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AA28" s="5"/>
     </row>
     <row r="29" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="5"/>
-      <c r="C29" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
-      <c r="AA29" s="5"/>
+      <c r="E29" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31" t="str">
+        <f>'CONSTRAINTS-DED'!$B$7</f>
+        <v>ABOVE_AGE</v>
+      </c>
+      <c r="R29" s="31" t="str">
+        <f>'CONSTRAINTS-DED'!$C$7</f>
+        <v>Above Age</v>
+      </c>
+      <c r="S29" s="31" t="str">
+        <f>'CONSTRAINTS-DED'!$D$7</f>
+        <v>The minimum age required expressed in years.</v>
+      </c>
+      <c r="T29" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="U29" s="43">
+        <v>16</v>
+      </c>
+      <c r="V29" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="W29" s="31" t="str">
+        <f>'CONSTRAINTS-DED'!$E$7</f>
+        <v>AboveAgeType</v>
+      </c>
+      <c r="X29" s="31" t="str">
+        <f>'CONSTRAINTS-DED'!$F$7</f>
+        <v>ccts:Quantity</v>
+      </c>
+      <c r="Y29" s="34"/>
+      <c r="Z29" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA29" s="31"/>
     </row>
     <row r="30" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+    </row>
+    <row r="31" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
+    </row>
+    <row r="32" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="4"/>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
-      <c r="Y30" s="3"/>
-      <c r="Z30" s="3"/>
-      <c r="AA30" s="3"/>
-    </row>
-    <row r="31" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="23">
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
+    </row>
+    <row r="33" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="23">
         <v>4</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B33" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="F31" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="G31" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="26"/>
-      <c r="P31" s="26"/>
-      <c r="Q31" s="26"/>
-      <c r="R31" s="26" t="s">
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="S31" s="26" t="s">
+      <c r="S33" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="T31" s="30" t="s">
+      <c r="T33" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="U31" s="42"/>
-      <c r="V31" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="W31" s="26"/>
-      <c r="X31" s="26"/>
-      <c r="Y31" s="26"/>
-      <c r="Z31" s="28" t="s">
+      <c r="U33" s="42"/>
+      <c r="V33" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="W33" s="26"/>
+      <c r="X33" s="26"/>
+      <c r="Y33" s="26"/>
+      <c r="Z33" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="AA31" s="28"/>
-    </row>
-    <row r="32" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" s="6" t="s">
+      <c r="AA33" s="28"/>
+    </row>
+    <row r="34" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6" t="s">
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="S32" s="6" t="s">
+      <c r="S34" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="T32" s="8" t="s">
+      <c r="T34" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="U32" s="6"/>
-      <c r="V32" s="19" t="s">
+      <c r="U34" s="6"/>
+      <c r="V34" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="W32" s="40"/>
-      <c r="X32" s="40"/>
-      <c r="Y32" s="6"/>
-      <c r="Z32" s="8"/>
-      <c r="AA32" s="7"/>
-    </row>
-    <row r="33" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33" s="10" t="s">
+      <c r="W34" s="40"/>
+      <c r="X34" s="40"/>
+      <c r="Y34" s="6"/>
+      <c r="Z34" s="8"/>
+      <c r="AA34" s="7"/>
+    </row>
+    <row r="35" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10"/>
-      <c r="T33" s="12" t="s">
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="U33" s="10"/>
-      <c r="V33" s="11" t="s">
+      <c r="U35" s="10"/>
+      <c r="V35" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="W33" s="41"/>
-      <c r="X33" s="41"/>
-      <c r="Y33" s="10"/>
-      <c r="Z33" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA33" s="12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="13"/>
-      <c r="T34" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="U34" s="5"/>
-      <c r="V34" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="W34" s="5"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="16"/>
-      <c r="Z34" s="5"/>
-      <c r="AA34" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5">
-        <f>'IR-DED'!B2</f>
-        <v>0</v>
-      </c>
-      <c r="R35" s="5" t="str">
-        <f>'IR-DED'!$C$16</f>
-        <v>Registered Name</v>
-      </c>
-      <c r="S35" s="5" t="str">
-        <f>'IR-DED'!$D$16</f>
-        <v>The name of the organisation as registered in an official registry.</v>
-      </c>
-      <c r="T35" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="U35" s="15"/>
-      <c r="V35" s="14">
-        <v>1</v>
-      </c>
-      <c r="W35" s="5" t="str">
-        <f>'IR-DED'!$E$16</f>
-        <v>RegisteredNameType</v>
-      </c>
-      <c r="X35" s="5" t="str">
-        <f>'IR-DED'!$F$16</f>
-        <v>ccts:Text</v>
-      </c>
-      <c r="Y35" s="15"/>
-      <c r="Z35" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA35" s="5"/>
+      <c r="W35" s="41"/>
+      <c r="X35" s="41"/>
+      <c r="Y35" s="10"/>
+      <c r="Z35" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA35" s="12" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="36" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="C36" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
@@ -3344,46 +3322,31 @@
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
-      <c r="Q36" s="5" t="str">
-        <f>'IR-DED'!$B$15</f>
-        <v>LP_ID</v>
-      </c>
-      <c r="R36" s="5" t="str">
-        <f>'IR-DED'!$C$15</f>
-        <v>Legal Person Identifier</v>
-      </c>
-      <c r="S36" s="5" t="str">
-        <f>'IR-DED'!$D$15</f>
-        <v>The identifier number of the organisation. E.g. the BRIS EUID, a LEI number, etc.</v>
-      </c>
-      <c r="T36" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="U36" s="15"/>
-      <c r="V36" s="14">
-        <v>1</v>
-      </c>
-      <c r="W36" s="5" t="str">
-        <f>'IR-DED'!$E$15</f>
-        <v>LegalPersonIDType</v>
-      </c>
-      <c r="X36" s="46" t="str">
-        <f>'IR-DED'!$F$15</f>
-        <v>ccts:Identifier</v>
-      </c>
-      <c r="Y36" s="15"/>
-      <c r="Z36" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="13"/>
+      <c r="T36" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="U36" s="5"/>
+      <c r="V36" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="W36" s="5"/>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="16"/>
+      <c r="Z36" s="5"/>
+      <c r="AA36" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="37" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="5"/>
-      <c r="C37" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
@@ -3396,25 +3359,46 @@
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="5"/>
-      <c r="S37" s="5"/>
-      <c r="T37" s="14"/>
-      <c r="U37" s="5"/>
-      <c r="V37" s="14"/>
-      <c r="W37" s="5"/>
-      <c r="X37" s="5"/>
-      <c r="Y37" s="5"/>
-      <c r="Z37" s="5"/>
+      <c r="Q37" s="5">
+        <f>'IR-DED'!B2</f>
+        <v>0</v>
+      </c>
+      <c r="R37" s="5" t="str">
+        <f>'IR-DED'!$C$16</f>
+        <v>Registered Name</v>
+      </c>
+      <c r="S37" s="5" t="str">
+        <f>'IR-DED'!$D$16</f>
+        <v>The name of the organisation as registered in an official registry.</v>
+      </c>
+      <c r="T37" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="U37" s="15"/>
+      <c r="V37" s="14">
+        <v>1</v>
+      </c>
+      <c r="W37" s="5" t="str">
+        <f>'IR-DED'!$E$16</f>
+        <v>RegisteredNameType</v>
+      </c>
+      <c r="X37" s="5" t="str">
+        <f>'IR-DED'!$F$16</f>
+        <v>ccts:Text</v>
+      </c>
+      <c r="Y37" s="15"/>
+      <c r="Z37" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AA37" s="5"/>
     </row>
     <row r="38" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="5"/>
-      <c r="C38" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
@@ -3427,35 +3411,46 @@
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="S38" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="T38" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="U38" s="5"/>
-      <c r="V38" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="W38" s="5"/>
-      <c r="X38" s="5"/>
-      <c r="Y38" s="16"/>
-      <c r="Z38" s="5"/>
-      <c r="AA38" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="Q38" s="5" t="str">
+        <f>'IR-DED'!$B$15</f>
+        <v>LP_ID</v>
+      </c>
+      <c r="R38" s="5" t="str">
+        <f>'IR-DED'!$C$15</f>
+        <v>Legal Person Identifier</v>
+      </c>
+      <c r="S38" s="5" t="str">
+        <f>'IR-DED'!$D$15</f>
+        <v>The identifier number of the organisation. E.g. the BRIS EUID, a LEI number, etc.</v>
+      </c>
+      <c r="T38" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="U38" s="15"/>
+      <c r="V38" s="14">
+        <v>1</v>
+      </c>
+      <c r="W38" s="5" t="str">
+        <f>'IR-DED'!$E$15</f>
+        <v>LegalPersonIDType</v>
+      </c>
+      <c r="X38" s="46" t="str">
+        <f>'IR-DED'!$F$15</f>
+        <v>ccts:Identifier</v>
+      </c>
+      <c r="Y38" s="15"/>
+      <c r="Z38" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA38" s="5"/>
     </row>
     <row r="39" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="C39" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
@@ -3468,48 +3463,25 @@
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
-      <c r="Q39" s="5" t="str">
-        <f>'IR-DED'!$B$19</f>
-        <v>EVIDENCE_ID</v>
-      </c>
-      <c r="R39" s="5" t="str">
-        <f>'IR-DED'!$C$19</f>
-        <v>Evidence Identifier</v>
-      </c>
-      <c r="S39" s="5" t="str">
-        <f>'IR-DED'!$D$19</f>
-        <v>The Identifier of an evidence.</v>
-      </c>
-      <c r="T39" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="U39" s="45" t="s">
-        <v>150</v>
-      </c>
-      <c r="V39" s="17">
-        <v>1</v>
-      </c>
-      <c r="W39" s="5" t="str">
-        <f>'IR-DED'!$E$19</f>
-        <v>EvidenceIdentifierType</v>
-      </c>
-      <c r="X39" s="5" t="str">
-        <f>'IR-DED'!$F$19</f>
-        <v>ccts:Identifier</v>
-      </c>
-      <c r="Y39" s="20"/>
-      <c r="Z39" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="14"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="14"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5"/>
       <c r="AA39" s="5"/>
     </row>
     <row r="40" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="C40" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
@@ -3522,442 +3494,448 @@
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
-      <c r="Q40" s="5" t="str">
-        <f>'IR-DED'!$B$20</f>
-        <v>DOWNLOAD_URL</v>
-      </c>
-      <c r="R40" s="5" t="str">
-        <f>'IR-DED'!$C$20</f>
-        <v>Download URL</v>
-      </c>
-      <c r="S40" s="5" t="str">
-        <f>'IR-DED'!$D$20</f>
-        <v>The URL where to download an evidence from.</v>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="S40" s="13" t="s">
+        <v>196</v>
       </c>
       <c r="T40" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="U40" s="45" t="s">
-        <v>181</v>
-      </c>
-      <c r="V40" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="W40" s="5" t="str">
-        <f>'IR-DED'!$E$20</f>
-        <v>DownloadURL</v>
-      </c>
-      <c r="X40" s="5" t="str">
-        <f>'IR-DED'!$F$20</f>
-        <v>ccts:URI</v>
-      </c>
-      <c r="Y40" s="20"/>
-      <c r="Z40" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA40" s="5"/>
+        <v>191</v>
+      </c>
+      <c r="U40" s="5"/>
+      <c r="V40" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="16"/>
+      <c r="Z40" s="5"/>
+      <c r="AA40" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="41" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="31" t="s">
+      <c r="D41" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="31"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="31"/>
-      <c r="M41" s="31"/>
-      <c r="N41" s="31"/>
-      <c r="O41" s="31"/>
-      <c r="P41" s="31"/>
-      <c r="Q41" s="31" t="str">
-        <f>'CONSTRAINTS-DED'!$B$16</f>
-        <v>EVIDENCE_TYPE</v>
-      </c>
-      <c r="R41" s="31" t="str">
-        <f>'CONSTRAINTS-DED'!$C$16</f>
-        <v>Evidence Type</v>
-      </c>
-      <c r="S41" s="31" t="str">
-        <f>'CONSTRAINTS-DED'!$D$16</f>
-        <v>Type of evidence.</v>
-      </c>
-      <c r="T41" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="U41" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="V41" s="33">
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5" t="str">
+        <f>'IR-DED'!$B$19</f>
+        <v>EVIDENCE_ID</v>
+      </c>
+      <c r="R41" s="5" t="str">
+        <f>'IR-DED'!$C$19</f>
+        <v>Evidence Identifier</v>
+      </c>
+      <c r="S41" s="5" t="str">
+        <f>'IR-DED'!$D$19</f>
+        <v>The Identifier of an evidence.</v>
+      </c>
+      <c r="T41" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="U41" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="V41" s="17">
         <v>1</v>
       </c>
-      <c r="W41" s="31" t="str">
-        <f>'CONSTRAINTS-DED'!$E$16</f>
-        <v>EvidenceType</v>
-      </c>
-      <c r="X41" s="31" t="str">
-        <f>'CONSTRAINTS-DED'!$F$16</f>
-        <v>skos:Concept</v>
-      </c>
-      <c r="Y41" s="34"/>
-      <c r="Z41" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA41" s="31"/>
+      <c r="W41" s="5" t="str">
+        <f>'IR-DED'!$E$19</f>
+        <v>EvidenceIdentifierType</v>
+      </c>
+      <c r="X41" s="5" t="str">
+        <f>'IR-DED'!$F$19</f>
+        <v>ccts:Identifier</v>
+      </c>
+      <c r="Y41" s="20"/>
+      <c r="Z41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA41" s="5"/>
     </row>
     <row r="42" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
-      <c r="D42" s="31" t="s">
+      <c r="D42" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="31"/>
-      <c r="N42" s="31"/>
-      <c r="O42" s="31"/>
-      <c r="P42" s="31"/>
-      <c r="Q42" s="31" t="str">
-        <f>'CONSTRAINTS-DED'!$B$17</f>
-        <v>EVIDENCE_SCHEME_VERSION</v>
-      </c>
-      <c r="R42" s="31" t="str">
-        <f>'CONSTRAINTS-DED'!$C$17</f>
-        <v>Evidence Scheme Version</v>
-      </c>
-      <c r="S42" s="31" t="str">
-        <f>'CONSTRAINTS-DED'!$D$17</f>
-        <v>The version identifier of the model (or template) used to express the evidence.</v>
-      </c>
-      <c r="T42" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="U42" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="V42" s="33" t="s">
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5" t="str">
+        <f>'IR-DED'!$B$20</f>
+        <v>DOWNLOAD_URL</v>
+      </c>
+      <c r="R42" s="5" t="str">
+        <f>'IR-DED'!$C$20</f>
+        <v>Download URL</v>
+      </c>
+      <c r="S42" s="5" t="str">
+        <f>'IR-DED'!$D$20</f>
+        <v>The URL where to download an evidence from.</v>
+      </c>
+      <c r="T42" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="U42" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="V42" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="W42" s="31" t="str">
-        <f>'CONSTRAINTS-DED'!$E$17</f>
-        <v>EvidenceSchemeVersionIdentifier</v>
-      </c>
-      <c r="X42" s="31" t="str">
-        <f>'CONSTRAINTS-DED'!$F$17</f>
-        <v>ccts:Identifier</v>
-      </c>
-      <c r="Y42" s="34"/>
-      <c r="Z42" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA42" s="31"/>
+      <c r="W42" s="5" t="str">
+        <f>'IR-DED'!$E$20</f>
+        <v>DownloadURL</v>
+      </c>
+      <c r="X42" s="5" t="str">
+        <f>'IR-DED'!$F$20</f>
+        <v>ccts:URI</v>
+      </c>
+      <c r="Y42" s="20"/>
+      <c r="Z42" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA42" s="5"/>
     </row>
     <row r="43" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="5"/>
-      <c r="C43" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="14"/>
-      <c r="U43" s="5"/>
-      <c r="V43" s="14"/>
-      <c r="W43" s="5"/>
-      <c r="X43" s="5"/>
-      <c r="Y43" s="5"/>
-      <c r="Z43" s="5"/>
-      <c r="AA43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="31"/>
+      <c r="P43" s="31"/>
+      <c r="Q43" s="31" t="str">
+        <f>'CONSTRAINTS-DED'!$B$16</f>
+        <v>EVIDENCE_TYPE</v>
+      </c>
+      <c r="R43" s="31" t="str">
+        <f>'CONSTRAINTS-DED'!$C$16</f>
+        <v>Evidence Type</v>
+      </c>
+      <c r="S43" s="31" t="str">
+        <f>'CONSTRAINTS-DED'!$D$16</f>
+        <v>Type of evidence.</v>
+      </c>
+      <c r="T43" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="U43" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="V43" s="33">
+        <v>1</v>
+      </c>
+      <c r="W43" s="31" t="str">
+        <f>'CONSTRAINTS-DED'!$E$16</f>
+        <v>EvidenceType</v>
+      </c>
+      <c r="X43" s="31" t="str">
+        <f>'CONSTRAINTS-DED'!$F$16</f>
+        <v>skos:Concept</v>
+      </c>
+      <c r="Y43" s="34"/>
+      <c r="Z43" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA43" s="31"/>
     </row>
     <row r="44" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="26" t="s">
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="31"/>
+      <c r="P44" s="31"/>
+      <c r="Q44" s="31" t="str">
+        <f>'CONSTRAINTS-DED'!$B$17</f>
+        <v>EVIDENCE_SCHEME_VERSION</v>
+      </c>
+      <c r="R44" s="31" t="str">
+        <f>'CONSTRAINTS-DED'!$C$17</f>
+        <v>Evidence Scheme Version</v>
+      </c>
+      <c r="S44" s="31" t="str">
+        <f>'CONSTRAINTS-DED'!$D$17</f>
+        <v>The version identifier of the model (or template) used to express the evidence.</v>
+      </c>
+      <c r="T44" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="U44" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="V44" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="W44" s="31" t="str">
+        <f>'CONSTRAINTS-DED'!$E$17</f>
+        <v>EvidenceSchemeVersionIdentifier</v>
+      </c>
+      <c r="X44" s="31" t="str">
+        <f>'CONSTRAINTS-DED'!$F$17</f>
+        <v>ccts:Identifier</v>
+      </c>
+      <c r="Y44" s="34"/>
+      <c r="Z44" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA44" s="31"/>
+    </row>
+    <row r="45" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="14"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="14"/>
+      <c r="W45" s="5"/>
+      <c r="X45" s="5"/>
+      <c r="Y45" s="5"/>
+      <c r="Z45" s="5"/>
+      <c r="AA45" s="5"/>
+    </row>
+    <row r="46" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="3"/>
-      <c r="U44" s="3"/>
-      <c r="V44" s="4"/>
-      <c r="W44" s="3"/>
-      <c r="X44" s="3"/>
-      <c r="Y44" s="3"/>
-      <c r="Z44" s="3"/>
-      <c r="AA44" s="3"/>
-    </row>
-    <row r="45" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="23">
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="4"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="3"/>
+      <c r="AA46" s="3"/>
+    </row>
+    <row r="47" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="23">
         <v>5</v>
       </c>
-      <c r="B45" s="26" t="s">
+      <c r="B47" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="F45" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="G45" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="26"/>
-      <c r="K45" s="26"/>
-      <c r="L45" s="26"/>
-      <c r="M45" s="26"/>
-      <c r="N45" s="26"/>
-      <c r="O45" s="26"/>
-      <c r="P45" s="26"/>
-      <c r="Q45" s="26"/>
-      <c r="R45" s="26" t="s">
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F47" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G47" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="26"/>
+      <c r="M47" s="26"/>
+      <c r="N47" s="26"/>
+      <c r="O47" s="26"/>
+      <c r="P47" s="26"/>
+      <c r="Q47" s="26"/>
+      <c r="R47" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="S45" s="26" t="s">
+      <c r="S47" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="T45" s="30" t="s">
+      <c r="T47" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="U45" s="42"/>
-      <c r="V45" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="W45" s="26"/>
-      <c r="X45" s="26"/>
-      <c r="Y45" s="26"/>
-      <c r="Z45" s="28" t="s">
+      <c r="U47" s="42"/>
+      <c r="V47" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="W47" s="26"/>
+      <c r="X47" s="26"/>
+      <c r="Y47" s="26"/>
+      <c r="Z47" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="AA45" s="28"/>
-    </row>
-    <row r="46" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C46" s="6" t="s">
+      <c r="AA47" s="28"/>
+    </row>
+    <row r="48" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="6"/>
-      <c r="P46" s="6"/>
-      <c r="Q46" s="6"/>
-      <c r="R46" s="6" t="s">
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="S46" s="6" t="s">
+      <c r="S48" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="T46" s="8" t="s">
+      <c r="T48" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="U46" s="6"/>
-      <c r="V46" s="19" t="s">
+      <c r="U48" s="6"/>
+      <c r="V48" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="W46" s="40"/>
-      <c r="X46" s="40"/>
-      <c r="Y46" s="6"/>
-      <c r="Z46" s="8"/>
-      <c r="AA46" s="7"/>
-    </row>
-    <row r="47" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C47" s="10" t="s">
+      <c r="W48" s="40"/>
+      <c r="X48" s="40"/>
+      <c r="Y48" s="6"/>
+      <c r="Z48" s="8"/>
+      <c r="AA48" s="7"/>
+    </row>
+    <row r="49" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="10"/>
-      <c r="R47" s="10"/>
-      <c r="S47" s="10"/>
-      <c r="T47" s="12" t="s">
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="10"/>
+      <c r="T49" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="U47" s="10"/>
-      <c r="V47" s="11" t="s">
+      <c r="U49" s="10"/>
+      <c r="V49" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="W47" s="41"/>
-      <c r="X47" s="41"/>
-      <c r="Y47" s="10"/>
-      <c r="Z47" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA47" s="12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
-      <c r="P48" s="5"/>
-      <c r="Q48" s="5"/>
-      <c r="R48" s="5"/>
-      <c r="S48" s="13"/>
-      <c r="T48" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="U48" s="5"/>
-      <c r="V48" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="W48" s="5"/>
-      <c r="X48" s="5"/>
-      <c r="Y48" s="16"/>
-      <c r="Z48" s="5"/>
-      <c r="AA48" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="5"/>
-      <c r="P49" s="5"/>
-      <c r="Q49" s="5" t="str">
-        <f>'IR-DED'!B16</f>
-        <v>REGISTERED_NAME</v>
-      </c>
-      <c r="R49" s="5" t="str">
-        <f>'IR-DED'!$C$16</f>
-        <v>Registered Name</v>
-      </c>
-      <c r="S49" s="5" t="str">
-        <f>'IR-DED'!$D$16</f>
-        <v>The name of the organisation as registered in an official registry.</v>
-      </c>
-      <c r="T49" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="U49" s="15"/>
-      <c r="V49" s="14">
-        <v>1</v>
-      </c>
-      <c r="W49" s="5" t="str">
-        <f>'IR-DED'!$E$16</f>
-        <v>RegisteredNameType</v>
-      </c>
-      <c r="X49" s="5" t="str">
-        <f>'IR-DED'!$F$16</f>
-        <v>ccts:Text</v>
-      </c>
-      <c r="Y49" s="15"/>
-      <c r="Z49" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA49" s="5"/>
+      <c r="W49" s="41"/>
+      <c r="X49" s="41"/>
+      <c r="Y49" s="10"/>
+      <c r="Z49" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA49" s="12" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="50" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="C50" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
@@ -3970,46 +3948,31 @@
       <c r="N50" s="5"/>
       <c r="O50" s="5"/>
       <c r="P50" s="5"/>
-      <c r="Q50" s="5" t="str">
-        <f>'IR-DED'!$B$15</f>
-        <v>LP_ID</v>
-      </c>
-      <c r="R50" s="5" t="str">
-        <f>'IR-DED'!$C$15</f>
-        <v>Legal Person Identifier</v>
-      </c>
-      <c r="S50" s="5" t="str">
-        <f>'IR-DED'!$D$15</f>
-        <v>The identifier number of the organisation. E.g. the BRIS EUID, a LEI number, etc.</v>
-      </c>
-      <c r="T50" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="U50" s="15"/>
-      <c r="V50" s="14">
-        <v>1</v>
-      </c>
-      <c r="W50" s="5" t="str">
-        <f>'IR-DED'!$E$15</f>
-        <v>LegalPersonIDType</v>
-      </c>
-      <c r="X50" s="46" t="str">
-        <f>'IR-DED'!$F$15</f>
-        <v>ccts:Identifier</v>
-      </c>
-      <c r="Y50" s="15"/>
-      <c r="Z50" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="13"/>
+      <c r="T50" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="U50" s="5"/>
+      <c r="V50" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="W50" s="5"/>
+      <c r="X50" s="5"/>
+      <c r="Y50" s="16"/>
+      <c r="Z50" s="5"/>
+      <c r="AA50" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="51" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="5"/>
-      <c r="C51" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
@@ -4022,25 +3985,46 @@
       <c r="N51" s="5"/>
       <c r="O51" s="5"/>
       <c r="P51" s="5"/>
-      <c r="Q51" s="5"/>
-      <c r="R51" s="5"/>
-      <c r="S51" s="5"/>
-      <c r="T51" s="14"/>
-      <c r="U51" s="5"/>
-      <c r="V51" s="14"/>
-      <c r="W51" s="5"/>
-      <c r="X51" s="5"/>
-      <c r="Y51" s="5"/>
-      <c r="Z51" s="5"/>
+      <c r="Q51" s="5" t="str">
+        <f>'IR-DED'!B16</f>
+        <v>REGISTERED_NAME</v>
+      </c>
+      <c r="R51" s="5" t="str">
+        <f>'IR-DED'!$C$16</f>
+        <v>Registered Name</v>
+      </c>
+      <c r="S51" s="5" t="str">
+        <f>'IR-DED'!$D$16</f>
+        <v>The name of the organisation as registered in an official registry.</v>
+      </c>
+      <c r="T51" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="U51" s="15"/>
+      <c r="V51" s="14">
+        <v>1</v>
+      </c>
+      <c r="W51" s="5" t="str">
+        <f>'IR-DED'!$E$16</f>
+        <v>RegisteredNameType</v>
+      </c>
+      <c r="X51" s="5" t="str">
+        <f>'IR-DED'!$F$16</f>
+        <v>ccts:Text</v>
+      </c>
+      <c r="Y51" s="15"/>
+      <c r="Z51" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="AA51" s="5"/>
     </row>
     <row r="52" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="5"/>
-      <c r="C52" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
@@ -4053,35 +4037,46 @@
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
       <c r="P52" s="5"/>
-      <c r="Q52" s="5"/>
-      <c r="R52" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="S52" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="T52" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="U52" s="5"/>
-      <c r="V52" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="W52" s="5"/>
-      <c r="X52" s="5"/>
-      <c r="Y52" s="16"/>
-      <c r="Z52" s="5"/>
-      <c r="AA52" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="Q52" s="5" t="str">
+        <f>'IR-DED'!$B$15</f>
+        <v>LP_ID</v>
+      </c>
+      <c r="R52" s="5" t="str">
+        <f>'IR-DED'!$C$15</f>
+        <v>Legal Person Identifier</v>
+      </c>
+      <c r="S52" s="5" t="str">
+        <f>'IR-DED'!$D$15</f>
+        <v>The identifier number of the organisation. E.g. the BRIS EUID, a LEI number, etc.</v>
+      </c>
+      <c r="T52" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="U52" s="15"/>
+      <c r="V52" s="14">
+        <v>1</v>
+      </c>
+      <c r="W52" s="5" t="str">
+        <f>'IR-DED'!$E$15</f>
+        <v>LegalPersonIDType</v>
+      </c>
+      <c r="X52" s="46" t="str">
+        <f>'IR-DED'!$F$15</f>
+        <v>ccts:Identifier</v>
+      </c>
+      <c r="Y52" s="15"/>
+      <c r="Z52" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA52" s="5"/>
     </row>
     <row r="53" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="C53" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" s="5"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
@@ -4094,48 +4089,25 @@
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
       <c r="P53" s="5"/>
-      <c r="Q53" s="5" t="str">
-        <f>'IR-DED'!$B$19</f>
-        <v>EVIDENCE_ID</v>
-      </c>
-      <c r="R53" s="5" t="str">
-        <f>'IR-DED'!$C$19</f>
-        <v>Evidence Identifier</v>
-      </c>
-      <c r="S53" s="5" t="str">
-        <f>'IR-DED'!$D$19</f>
-        <v>The Identifier of an evidence.</v>
-      </c>
-      <c r="T53" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="U53" s="45" t="s">
-        <v>150</v>
-      </c>
-      <c r="V53" s="17">
-        <v>1</v>
-      </c>
-      <c r="W53" s="5" t="str">
-        <f>'IR-DED'!$E$19</f>
-        <v>EvidenceIdentifierType</v>
-      </c>
-      <c r="X53" s="5" t="str">
-        <f>'IR-DED'!$F$19</f>
-        <v>ccts:Identifier</v>
-      </c>
-      <c r="Y53" s="20"/>
-      <c r="Z53" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="5"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="14"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="14"/>
+      <c r="W53" s="5"/>
+      <c r="X53" s="5"/>
+      <c r="Y53" s="5"/>
+      <c r="Z53" s="5"/>
       <c r="AA53" s="5"/>
     </row>
     <row r="54" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="C54" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" s="5"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
@@ -4148,444 +4120,448 @@
       <c r="N54" s="5"/>
       <c r="O54" s="5"/>
       <c r="P54" s="5"/>
-      <c r="Q54" s="5" t="str">
-        <f>'IR-DED'!$B$20</f>
-        <v>DOWNLOAD_URL</v>
-      </c>
-      <c r="R54" s="5" t="str">
-        <f>'IR-DED'!$C$20</f>
-        <v>Download URL</v>
-      </c>
-      <c r="S54" s="5" t="str">
-        <f>'IR-DED'!$D$20</f>
-        <v>The URL where to download an evidence from.</v>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="S54" s="13" t="s">
+        <v>196</v>
       </c>
       <c r="T54" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="U54" s="45" t="s">
-        <v>181</v>
-      </c>
-      <c r="V54" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="W54" s="5" t="str">
-        <f>'IR-DED'!$E$20</f>
-        <v>DownloadURL</v>
-      </c>
-      <c r="X54" s="5" t="str">
-        <f>'IR-DED'!$F$20</f>
-        <v>ccts:URI</v>
-      </c>
-      <c r="Y54" s="20"/>
-      <c r="Z54" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA54" s="5"/>
+        <v>191</v>
+      </c>
+      <c r="U54" s="5"/>
+      <c r="V54" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="W54" s="5"/>
+      <c r="X54" s="5"/>
+      <c r="Y54" s="16"/>
+      <c r="Z54" s="5"/>
+      <c r="AA54" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="55" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
-      <c r="D55" s="31" t="s">
+      <c r="D55" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="31"/>
-      <c r="F55" s="31"/>
-      <c r="G55" s="31"/>
-      <c r="H55" s="31"/>
-      <c r="I55" s="31"/>
-      <c r="J55" s="31"/>
-      <c r="K55" s="31"/>
-      <c r="L55" s="31"/>
-      <c r="M55" s="31"/>
-      <c r="N55" s="31"/>
-      <c r="O55" s="31"/>
-      <c r="P55" s="31"/>
-      <c r="Q55" s="31" t="str">
-        <f>'CONSTRAINTS-DED'!$B$16</f>
-        <v>EVIDENCE_TYPE</v>
-      </c>
-      <c r="R55" s="31" t="str">
-        <f>'CONSTRAINTS-DED'!$C$16</f>
-        <v>Evidence Type</v>
-      </c>
-      <c r="S55" s="31" t="str">
-        <f>'CONSTRAINTS-DED'!$D$16</f>
-        <v>Type of evidence.</v>
-      </c>
-      <c r="T55" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="U55" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="V55" s="33">
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="5" t="str">
+        <f>'IR-DED'!$B$19</f>
+        <v>EVIDENCE_ID</v>
+      </c>
+      <c r="R55" s="5" t="str">
+        <f>'IR-DED'!$C$19</f>
+        <v>Evidence Identifier</v>
+      </c>
+      <c r="S55" s="5" t="str">
+        <f>'IR-DED'!$D$19</f>
+        <v>The Identifier of an evidence.</v>
+      </c>
+      <c r="T55" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="U55" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="V55" s="17">
         <v>1</v>
       </c>
-      <c r="W55" s="31" t="str">
-        <f>'CONSTRAINTS-DED'!$E$16</f>
-        <v>EvidenceType</v>
-      </c>
-      <c r="X55" s="31" t="str">
-        <f>'CONSTRAINTS-DED'!$F$16</f>
-        <v>skos:Concept</v>
-      </c>
-      <c r="Y55" s="34"/>
-      <c r="Z55" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA55" s="31"/>
+      <c r="W55" s="5" t="str">
+        <f>'IR-DED'!$E$19</f>
+        <v>EvidenceIdentifierType</v>
+      </c>
+      <c r="X55" s="5" t="str">
+        <f>'IR-DED'!$F$19</f>
+        <v>ccts:Identifier</v>
+      </c>
+      <c r="Y55" s="20"/>
+      <c r="Z55" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA55" s="5"/>
     </row>
     <row r="56" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
-      <c r="D56" s="31" t="s">
+      <c r="D56" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="31"/>
-      <c r="K56" s="31"/>
-      <c r="L56" s="31"/>
-      <c r="M56" s="31"/>
-      <c r="N56" s="31"/>
-      <c r="O56" s="31"/>
-      <c r="P56" s="31"/>
-      <c r="Q56" s="31" t="str">
-        <f>'CONSTRAINTS-DED'!$B$17</f>
-        <v>EVIDENCE_SCHEME_VERSION</v>
-      </c>
-      <c r="R56" s="31" t="str">
-        <f>'CONSTRAINTS-DED'!$C$17</f>
-        <v>Evidence Scheme Version</v>
-      </c>
-      <c r="S56" s="31" t="str">
-        <f>'CONSTRAINTS-DED'!$D$17</f>
-        <v>The version identifier of the model (or template) used to express the evidence.</v>
-      </c>
-      <c r="T56" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="U56" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="V56" s="33" t="s">
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5" t="str">
+        <f>'IR-DED'!$B$20</f>
+        <v>DOWNLOAD_URL</v>
+      </c>
+      <c r="R56" s="5" t="str">
+        <f>'IR-DED'!$C$20</f>
+        <v>Download URL</v>
+      </c>
+      <c r="S56" s="5" t="str">
+        <f>'IR-DED'!$D$20</f>
+        <v>The URL where to download an evidence from.</v>
+      </c>
+      <c r="T56" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="U56" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="V56" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="W56" s="31" t="str">
-        <f>'CONSTRAINTS-DED'!$E$17</f>
-        <v>EvidenceSchemeVersionIdentifier</v>
-      </c>
-      <c r="X56" s="31" t="str">
-        <f>'CONSTRAINTS-DED'!$F$17</f>
-        <v>ccts:Identifier</v>
-      </c>
-      <c r="Y56" s="34"/>
-      <c r="Z56" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA56" s="31"/>
+      <c r="W56" s="5" t="str">
+        <f>'IR-DED'!$E$20</f>
+        <v>DownloadURL</v>
+      </c>
+      <c r="X56" s="5" t="str">
+        <f>'IR-DED'!$F$20</f>
+        <v>ccts:URI</v>
+      </c>
+      <c r="Y56" s="20"/>
+      <c r="Z56" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA56" s="5"/>
     </row>
     <row r="57" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="5"/>
-      <c r="C57" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
-      <c r="L57" s="5"/>
-      <c r="M57" s="5"/>
-      <c r="N57" s="5"/>
-      <c r="O57" s="5"/>
-      <c r="P57" s="5"/>
-      <c r="Q57" s="5"/>
-      <c r="R57" s="5"/>
-      <c r="S57" s="5"/>
-      <c r="T57" s="14"/>
-      <c r="U57" s="5"/>
-      <c r="V57" s="14"/>
-      <c r="W57" s="5"/>
-      <c r="X57" s="5"/>
-      <c r="Y57" s="5"/>
-      <c r="Z57" s="5"/>
-      <c r="AA57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="31"/>
+      <c r="L57" s="31"/>
+      <c r="M57" s="31"/>
+      <c r="N57" s="31"/>
+      <c r="O57" s="31"/>
+      <c r="P57" s="31"/>
+      <c r="Q57" s="31" t="str">
+        <f>'CONSTRAINTS-DED'!$B$16</f>
+        <v>EVIDENCE_TYPE</v>
+      </c>
+      <c r="R57" s="31" t="str">
+        <f>'CONSTRAINTS-DED'!$C$16</f>
+        <v>Evidence Type</v>
+      </c>
+      <c r="S57" s="31" t="str">
+        <f>'CONSTRAINTS-DED'!$D$16</f>
+        <v>Type of evidence.</v>
+      </c>
+      <c r="T57" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="U57" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="V57" s="33">
+        <v>1</v>
+      </c>
+      <c r="W57" s="31" t="str">
+        <f>'CONSTRAINTS-DED'!$E$16</f>
+        <v>EvidenceType</v>
+      </c>
+      <c r="X57" s="31" t="str">
+        <f>'CONSTRAINTS-DED'!$F$16</f>
+        <v>skos:Concept</v>
+      </c>
+      <c r="Y57" s="34"/>
+      <c r="Z57" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA57" s="31"/>
     </row>
     <row r="58" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
-      <c r="B58" s="26" t="s">
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="31"/>
+      <c r="K58" s="31"/>
+      <c r="L58" s="31"/>
+      <c r="M58" s="31"/>
+      <c r="N58" s="31"/>
+      <c r="O58" s="31"/>
+      <c r="P58" s="31"/>
+      <c r="Q58" s="31" t="str">
+        <f>'CONSTRAINTS-DED'!$B$17</f>
+        <v>EVIDENCE_SCHEME_VERSION</v>
+      </c>
+      <c r="R58" s="31" t="str">
+        <f>'CONSTRAINTS-DED'!$C$17</f>
+        <v>Evidence Scheme Version</v>
+      </c>
+      <c r="S58" s="31" t="str">
+        <f>'CONSTRAINTS-DED'!$D$17</f>
+        <v>The version identifier of the model (or template) used to express the evidence.</v>
+      </c>
+      <c r="T58" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="U58" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="V58" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="W58" s="31" t="str">
+        <f>'CONSTRAINTS-DED'!$E$17</f>
+        <v>EvidenceSchemeVersionIdentifier</v>
+      </c>
+      <c r="X58" s="31" t="str">
+        <f>'CONSTRAINTS-DED'!$F$17</f>
+        <v>ccts:Identifier</v>
+      </c>
+      <c r="Y58" s="34"/>
+      <c r="Z58" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA58" s="31"/>
+    </row>
+    <row r="59" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="5"/>
+      <c r="Q59" s="5"/>
+      <c r="R59" s="5"/>
+      <c r="S59" s="5"/>
+      <c r="T59" s="14"/>
+      <c r="U59" s="5"/>
+      <c r="V59" s="14"/>
+      <c r="W59" s="5"/>
+      <c r="X59" s="5"/>
+      <c r="Y59" s="5"/>
+      <c r="Z59" s="5"/>
+      <c r="AA59" s="5"/>
+    </row>
+    <row r="60" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
-      <c r="O58" s="3"/>
-      <c r="P58" s="3"/>
-      <c r="Q58" s="3"/>
-      <c r="R58" s="3"/>
-      <c r="S58" s="3"/>
-      <c r="T58" s="3"/>
-      <c r="U58" s="3"/>
-      <c r="V58" s="4"/>
-      <c r="W58" s="3"/>
-      <c r="X58" s="3"/>
-      <c r="Y58" s="3"/>
-      <c r="Z58" s="3"/>
-      <c r="AA58" s="3"/>
-    </row>
-    <row r="59" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="23">
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3"/>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
+      <c r="V60" s="4"/>
+      <c r="W60" s="3"/>
+      <c r="X60" s="3"/>
+      <c r="Y60" s="3"/>
+      <c r="Z60" s="3"/>
+      <c r="AA60" s="3"/>
+    </row>
+    <row r="61" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="23">
         <v>6</v>
       </c>
-      <c r="B59" s="26" t="s">
+      <c r="B61" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="F59" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="G59" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="H59" s="26"/>
-      <c r="I59" s="26"/>
-      <c r="J59" s="26"/>
-      <c r="K59" s="26"/>
-      <c r="L59" s="26"/>
-      <c r="M59" s="26"/>
-      <c r="N59" s="26"/>
-      <c r="O59" s="26"/>
-      <c r="P59" s="26"/>
-      <c r="Q59" s="26"/>
-      <c r="R59" s="26" t="s">
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F61" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G61" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="H61" s="26"/>
+      <c r="I61" s="26"/>
+      <c r="J61" s="26"/>
+      <c r="K61" s="26"/>
+      <c r="L61" s="26"/>
+      <c r="M61" s="26"/>
+      <c r="N61" s="26"/>
+      <c r="O61" s="26"/>
+      <c r="P61" s="26"/>
+      <c r="Q61" s="26"/>
+      <c r="R61" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="S59" s="26" t="s">
+      <c r="S61" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="T59" s="30" t="s">
+      <c r="T61" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="U59" s="42"/>
-      <c r="V59" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="W59" s="26"/>
-      <c r="X59" s="26"/>
-      <c r="Y59" s="26"/>
-      <c r="Z59" s="28" t="s">
+      <c r="U61" s="42"/>
+      <c r="V61" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="W61" s="26"/>
+      <c r="X61" s="26"/>
+      <c r="Y61" s="26"/>
+      <c r="Z61" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="AA59" s="28"/>
-    </row>
-    <row r="60" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C60" s="6" t="s">
+      <c r="AA61" s="28"/>
+    </row>
+    <row r="62" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
-      <c r="L60" s="6"/>
-      <c r="M60" s="6"/>
-      <c r="N60" s="6"/>
-      <c r="O60" s="6"/>
-      <c r="P60" s="6"/>
-      <c r="Q60" s="6"/>
-      <c r="R60" s="6" t="s">
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="6"/>
+      <c r="O62" s="6"/>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="6"/>
+      <c r="R62" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="S60" s="6" t="s">
+      <c r="S62" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="T60" s="8" t="s">
+      <c r="T62" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="U60" s="6"/>
-      <c r="V60" s="19" t="s">
+      <c r="U62" s="6"/>
+      <c r="V62" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="W60" s="40"/>
-      <c r="X60" s="40"/>
-      <c r="Y60" s="6"/>
-      <c r="Z60" s="8"/>
-      <c r="AA60" s="7"/>
-    </row>
-    <row r="61" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C61" s="10" t="s">
+      <c r="W62" s="40"/>
+      <c r="X62" s="40"/>
+      <c r="Y62" s="6"/>
+      <c r="Z62" s="8"/>
+      <c r="AA62" s="7"/>
+    </row>
+    <row r="63" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="10"/>
-      <c r="K61" s="10"/>
-      <c r="L61" s="10"/>
-      <c r="M61" s="10"/>
-      <c r="N61" s="10"/>
-      <c r="O61" s="10"/>
-      <c r="P61" s="10"/>
-      <c r="Q61" s="10"/>
-      <c r="R61" s="10"/>
-      <c r="S61" s="10"/>
-      <c r="T61" s="12" t="s">
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="10"/>
+      <c r="N63" s="10"/>
+      <c r="O63" s="10"/>
+      <c r="P63" s="10"/>
+      <c r="Q63" s="10"/>
+      <c r="R63" s="10"/>
+      <c r="S63" s="10"/>
+      <c r="T63" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="U61" s="10"/>
-      <c r="V61" s="11" t="s">
+      <c r="U63" s="10"/>
+      <c r="V63" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="W61" s="41"/>
-      <c r="X61" s="41"/>
-      <c r="Y61" s="10"/>
-      <c r="Z61" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA61" s="12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
-      <c r="L62" s="5"/>
-      <c r="M62" s="5"/>
-      <c r="N62" s="5"/>
-      <c r="O62" s="5"/>
-      <c r="P62" s="5"/>
-      <c r="Q62" s="5"/>
-      <c r="R62" s="5"/>
-      <c r="S62" s="13"/>
-      <c r="T62" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="U62" s="5"/>
-      <c r="V62" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="W62" s="5"/>
-      <c r="X62" s="5"/>
-      <c r="Y62" s="16"/>
-      <c r="Z62" s="5"/>
-      <c r="AA62" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="5"/>
-      <c r="L63" s="5"/>
-      <c r="M63" s="5"/>
-      <c r="N63" s="5"/>
-      <c r="O63" s="5"/>
-      <c r="P63" s="5"/>
-      <c r="Q63" s="5" t="str">
-        <f>'IR-DED'!$B$19</f>
-        <v>EVIDENCE_ID</v>
-      </c>
-      <c r="R63" s="5" t="str">
-        <f>'IR-DED'!$C$19</f>
-        <v>Evidence Identifier</v>
-      </c>
-      <c r="S63" s="5" t="str">
-        <f>'IR-DED'!$D$19</f>
-        <v>The Identifier of an evidence.</v>
-      </c>
-      <c r="T63" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="U63" s="45" t="s">
-        <v>150</v>
-      </c>
-      <c r="V63" s="17">
-        <v>1</v>
-      </c>
-      <c r="W63" s="5" t="str">
-        <f>'IR-DED'!$E$19</f>
-        <v>EvidenceIdentifierType</v>
-      </c>
-      <c r="X63" s="5" t="str">
-        <f>'IR-DED'!$F$19</f>
-        <v>ccts:Identifier</v>
-      </c>
-      <c r="Y63" s="20"/>
-      <c r="Z63" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA63" s="5"/>
+      <c r="W63" s="41"/>
+      <c r="X63" s="41"/>
+      <c r="Y63" s="10"/>
+      <c r="Z63" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA63" s="12" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="64" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="C64" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" s="5"/>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
@@ -4598,219 +4574,310 @@
       <c r="N64" s="5"/>
       <c r="O64" s="5"/>
       <c r="P64" s="5"/>
-      <c r="Q64" s="5" t="str">
-        <f>'IR-DED'!$B$20</f>
-        <v>DOWNLOAD_URL</v>
-      </c>
-      <c r="R64" s="5" t="str">
-        <f>'IR-DED'!$C$20</f>
-        <v>Download URL</v>
-      </c>
-      <c r="S64" s="5" t="str">
-        <f>'IR-DED'!$D$20</f>
-        <v>The URL where to download an evidence from.</v>
-      </c>
+      <c r="Q64" s="5"/>
+      <c r="R64" s="5"/>
+      <c r="S64" s="13"/>
       <c r="T64" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="U64" s="45" t="s">
-        <v>181</v>
-      </c>
-      <c r="V64" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="W64" s="5" t="str">
-        <f>'IR-DED'!$E$20</f>
-        <v>DownloadURL</v>
-      </c>
-      <c r="X64" s="5" t="str">
-        <f>'IR-DED'!$F$20</f>
-        <v>ccts:URI</v>
-      </c>
-      <c r="Y64" s="20"/>
-      <c r="Z64" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA64" s="5"/>
+        <v>191</v>
+      </c>
+      <c r="U64" s="5"/>
+      <c r="V64" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="W64" s="5"/>
+      <c r="X64" s="5"/>
+      <c r="Y64" s="16"/>
+      <c r="Z64" s="5"/>
+      <c r="AA64" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="65" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
-      <c r="D65" s="31" t="s">
+      <c r="D65" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="31"/>
-      <c r="K65" s="31"/>
-      <c r="L65" s="31"/>
-      <c r="M65" s="31"/>
-      <c r="N65" s="31"/>
-      <c r="O65" s="31"/>
-      <c r="P65" s="31"/>
-      <c r="Q65" s="31" t="str">
-        <f>'CONSTRAINTS-DED'!$B$16</f>
-        <v>EVIDENCE_TYPE</v>
-      </c>
-      <c r="R65" s="31" t="str">
-        <f>'CONSTRAINTS-DED'!$C$16</f>
-        <v>Evidence Type</v>
-      </c>
-      <c r="S65" s="31" t="str">
-        <f>'CONSTRAINTS-DED'!$D$16</f>
-        <v>Type of evidence.</v>
-      </c>
-      <c r="T65" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="U65" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="V65" s="33">
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="5"/>
+      <c r="O65" s="5"/>
+      <c r="P65" s="5"/>
+      <c r="Q65" s="5" t="str">
+        <f>'IR-DED'!$B$19</f>
+        <v>EVIDENCE_ID</v>
+      </c>
+      <c r="R65" s="5" t="str">
+        <f>'IR-DED'!$C$19</f>
+        <v>Evidence Identifier</v>
+      </c>
+      <c r="S65" s="5" t="str">
+        <f>'IR-DED'!$D$19</f>
+        <v>The Identifier of an evidence.</v>
+      </c>
+      <c r="T65" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="U65" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="V65" s="17">
         <v>1</v>
       </c>
-      <c r="W65" s="31" t="str">
-        <f>'CONSTRAINTS-DED'!$E$16</f>
-        <v>EvidenceType</v>
-      </c>
-      <c r="X65" s="31" t="str">
-        <f>'CONSTRAINTS-DED'!$F$16</f>
-        <v>skos:Concept</v>
-      </c>
-      <c r="Y65" s="34"/>
-      <c r="Z65" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA65" s="31"/>
+      <c r="W65" s="5" t="str">
+        <f>'IR-DED'!$E$19</f>
+        <v>EvidenceIdentifierType</v>
+      </c>
+      <c r="X65" s="5" t="str">
+        <f>'IR-DED'!$F$19</f>
+        <v>ccts:Identifier</v>
+      </c>
+      <c r="Y65" s="20"/>
+      <c r="Z65" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA65" s="5"/>
     </row>
     <row r="66" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
-      <c r="D66" s="31" t="s">
+      <c r="D66" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E66" s="31"/>
-      <c r="F66" s="31"/>
-      <c r="G66" s="31"/>
-      <c r="H66" s="31"/>
-      <c r="I66" s="31"/>
-      <c r="J66" s="31"/>
-      <c r="K66" s="31"/>
-      <c r="L66" s="31"/>
-      <c r="M66" s="31"/>
-      <c r="N66" s="31"/>
-      <c r="O66" s="31"/>
-      <c r="P66" s="31"/>
-      <c r="Q66" s="31" t="str">
-        <f>'CONSTRAINTS-DED'!$B$17</f>
-        <v>EVIDENCE_SCHEME_VERSION</v>
-      </c>
-      <c r="R66" s="31" t="str">
-        <f>'CONSTRAINTS-DED'!$C$17</f>
-        <v>Evidence Scheme Version</v>
-      </c>
-      <c r="S66" s="31" t="str">
-        <f>'CONSTRAINTS-DED'!$D$17</f>
-        <v>The version identifier of the model (or template) used to express the evidence.</v>
-      </c>
-      <c r="T66" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="U66" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="V66" s="33" t="s">
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="5"/>
+      <c r="Q66" s="5" t="str">
+        <f>'IR-DED'!$B$20</f>
+        <v>DOWNLOAD_URL</v>
+      </c>
+      <c r="R66" s="5" t="str">
+        <f>'IR-DED'!$C$20</f>
+        <v>Download URL</v>
+      </c>
+      <c r="S66" s="5" t="str">
+        <f>'IR-DED'!$D$20</f>
+        <v>The URL where to download an evidence from.</v>
+      </c>
+      <c r="T66" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="U66" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="V66" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="W66" s="31" t="str">
-        <f>'CONSTRAINTS-DED'!$E$17</f>
-        <v>EvidenceSchemeVersionIdentifier</v>
-      </c>
-      <c r="X66" s="31" t="str">
-        <f>'CONSTRAINTS-DED'!$F$17</f>
-        <v>ccts:Identifier</v>
-      </c>
-      <c r="Y66" s="34"/>
-      <c r="Z66" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA66" s="31"/>
+      <c r="W66" s="5" t="str">
+        <f>'IR-DED'!$E$20</f>
+        <v>DownloadURL</v>
+      </c>
+      <c r="X66" s="5" t="str">
+        <f>'IR-DED'!$F$20</f>
+        <v>ccts:URI</v>
+      </c>
+      <c r="Y66" s="20"/>
+      <c r="Z66" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA66" s="5"/>
     </row>
     <row r="67" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="5"/>
-      <c r="C67" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
-      <c r="L67" s="5"/>
-      <c r="M67" s="5"/>
-      <c r="N67" s="5"/>
-      <c r="O67" s="5"/>
-      <c r="P67" s="5"/>
-      <c r="Q67" s="5"/>
-      <c r="R67" s="5"/>
-      <c r="S67" s="5"/>
-      <c r="T67" s="14"/>
-      <c r="U67" s="5"/>
-      <c r="V67" s="14"/>
-      <c r="W67" s="5"/>
-      <c r="X67" s="5"/>
-      <c r="Y67" s="5"/>
-      <c r="Z67" s="5"/>
-      <c r="AA67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E67" s="31"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="31"/>
+      <c r="J67" s="31"/>
+      <c r="K67" s="31"/>
+      <c r="L67" s="31"/>
+      <c r="M67" s="31"/>
+      <c r="N67" s="31"/>
+      <c r="O67" s="31"/>
+      <c r="P67" s="31"/>
+      <c r="Q67" s="31" t="str">
+        <f>'CONSTRAINTS-DED'!$B$16</f>
+        <v>EVIDENCE_TYPE</v>
+      </c>
+      <c r="R67" s="31" t="str">
+        <f>'CONSTRAINTS-DED'!$C$16</f>
+        <v>Evidence Type</v>
+      </c>
+      <c r="S67" s="31" t="str">
+        <f>'CONSTRAINTS-DED'!$D$16</f>
+        <v>Type of evidence.</v>
+      </c>
+      <c r="T67" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="U67" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="V67" s="33">
+        <v>1</v>
+      </c>
+      <c r="W67" s="31" t="str">
+        <f>'CONSTRAINTS-DED'!$E$16</f>
+        <v>EvidenceType</v>
+      </c>
+      <c r="X67" s="31" t="str">
+        <f>'CONSTRAINTS-DED'!$F$16</f>
+        <v>skos:Concept</v>
+      </c>
+      <c r="Y67" s="34"/>
+      <c r="Z67" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA67" s="31"/>
     </row>
     <row r="68" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
-      <c r="B68" s="26" t="s">
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E68" s="31"/>
+      <c r="F68" s="31"/>
+      <c r="G68" s="31"/>
+      <c r="H68" s="31"/>
+      <c r="I68" s="31"/>
+      <c r="J68" s="31"/>
+      <c r="K68" s="31"/>
+      <c r="L68" s="31"/>
+      <c r="M68" s="31"/>
+      <c r="N68" s="31"/>
+      <c r="O68" s="31"/>
+      <c r="P68" s="31"/>
+      <c r="Q68" s="31" t="str">
+        <f>'CONSTRAINTS-DED'!$B$17</f>
+        <v>EVIDENCE_SCHEME_VERSION</v>
+      </c>
+      <c r="R68" s="31" t="str">
+        <f>'CONSTRAINTS-DED'!$C$17</f>
+        <v>Evidence Scheme Version</v>
+      </c>
+      <c r="S68" s="31" t="str">
+        <f>'CONSTRAINTS-DED'!$D$17</f>
+        <v>The version identifier of the model (or template) used to express the evidence.</v>
+      </c>
+      <c r="T68" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="U68" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="V68" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="W68" s="31" t="str">
+        <f>'CONSTRAINTS-DED'!$E$17</f>
+        <v>EvidenceSchemeVersionIdentifier</v>
+      </c>
+      <c r="X68" s="31" t="str">
+        <f>'CONSTRAINTS-DED'!$F$17</f>
+        <v>ccts:Identifier</v>
+      </c>
+      <c r="Y68" s="34"/>
+      <c r="Z68" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA68" s="31"/>
+    </row>
+    <row r="69" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+      <c r="N69" s="5"/>
+      <c r="O69" s="5"/>
+      <c r="P69" s="5"/>
+      <c r="Q69" s="5"/>
+      <c r="R69" s="5"/>
+      <c r="S69" s="5"/>
+      <c r="T69" s="14"/>
+      <c r="U69" s="5"/>
+      <c r="V69" s="14"/>
+      <c r="W69" s="5"/>
+      <c r="X69" s="5"/>
+      <c r="Y69" s="5"/>
+      <c r="Z69" s="5"/>
+      <c r="AA69" s="5"/>
+    </row>
+    <row r="70" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+      <c r="B70" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
-      <c r="M68" s="3"/>
-      <c r="N68" s="3"/>
-      <c r="O68" s="3"/>
-      <c r="P68" s="3"/>
-      <c r="Q68" s="3"/>
-      <c r="R68" s="3"/>
-      <c r="S68" s="3"/>
-      <c r="T68" s="3"/>
-      <c r="U68" s="3"/>
-      <c r="V68" s="4"/>
-      <c r="W68" s="3"/>
-      <c r="X68" s="3"/>
-      <c r="Y68" s="3"/>
-      <c r="Z68" s="3"/>
-      <c r="AA68" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3"/>
+      <c r="R70" s="3"/>
+      <c r="S70" s="3"/>
+      <c r="T70" s="3"/>
+      <c r="U70" s="3"/>
+      <c r="V70" s="4"/>
+      <c r="W70" s="3"/>
+      <c r="X70" s="3"/>
+      <c r="Y70" s="3"/>
+      <c r="Z70" s="3"/>
+      <c r="AA70" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U64" r:id="rId1"/>
-    <hyperlink ref="U63" r:id="rId2"/>
-    <hyperlink ref="U54" r:id="rId3"/>
-    <hyperlink ref="U53" r:id="rId4"/>
-    <hyperlink ref="U40" r:id="rId5"/>
-    <hyperlink ref="U39" r:id="rId6"/>
+    <hyperlink ref="U66" r:id="rId1"/>
+    <hyperlink ref="U65" r:id="rId2"/>
+    <hyperlink ref="U56" r:id="rId3"/>
+    <hyperlink ref="U55" r:id="rId4"/>
+    <hyperlink ref="U42" r:id="rId5"/>
+    <hyperlink ref="U41" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>

--- a/02-Vocabularies/SP-InformationRequirements.xlsx
+++ b/02-Vocabularies/SP-InformationRequirements.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="211">
   <si>
     <t>Cardinality</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Element UUID</t>
   </si>
   <si>
-    <t>DATUM</t>
-  </si>
-  <si>
     <t>Age</t>
   </si>
   <si>
@@ -630,12 +627,6 @@
     <t>[DescriptiGroup</t>
   </si>
   <si>
-    <t>{LEGISLATIGroup</t>
-  </si>
-  <si>
-    <t>LEGISLATIGroup</t>
-  </si>
-  <si>
     <t>{CRITERION</t>
   </si>
   <si>
@@ -658,6 +649,12 @@
   </si>
   <si>
     <t>4e015922-a775-47a1-9b63-b1e8ae7a6c27</t>
+  </si>
+  <si>
+    <t>INFORMATION_REQUIREMENT</t>
+  </si>
+  <si>
+    <t>LP_REGISTERED_NAME</t>
   </si>
 </sst>
 </file>
@@ -1235,7 +1232,7 @@
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1369,6 +1366,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1743,7 +1743,10 @@
   <dimension ref="A1:AC70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1756,7 +1759,8 @@
     <col min="17" max="17" width="24" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="25.85546875" style="2" customWidth="1"/>
     <col min="19" max="19" width="65" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="20" style="2" customWidth="1"/>
+    <col min="20" max="20" width="28.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20" style="2" customWidth="1"/>
     <col min="22" max="22" width="10.5703125" style="17" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -1875,28 +1879,28 @@
       <c r="O2" s="25"/>
       <c r="P2" s="25"/>
       <c r="Q2" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="R2" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="S2" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="T2" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="R2" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="S2" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="T2" s="25" t="s">
-        <v>143</v>
-      </c>
       <c r="U2" s="25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="V2" s="25" t="s">
         <v>0</v>
       </c>
       <c r="W2" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="X2" s="25" t="s">
         <v>71</v>
-      </c>
-      <c r="X2" s="25" t="s">
-        <v>72</v>
       </c>
       <c r="Y2" s="25" t="s">
         <v>21</v>
@@ -1913,7 +1917,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
@@ -1937,13 +1941,13 @@
       <c r="P3" s="26"/>
       <c r="Q3" s="26"/>
       <c r="R3" s="26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="S3" s="26" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="T3" s="30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U3" s="42"/>
       <c r="V3" s="27" t="s">
@@ -1955,7 +1959,7 @@
         <v>11</v>
       </c>
       <c r="Z3" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AA3" s="28"/>
     </row>
@@ -1967,7 +1971,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -1984,13 +1988,13 @@
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="S4" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="S4" s="6" t="s">
-        <v>201</v>
-      </c>
       <c r="T4" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U4" s="6"/>
       <c r="V4" s="19" t="s">
@@ -2012,7 +2016,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>202</v>
+        <v>7</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
@@ -2031,7 +2035,7 @@
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
       <c r="T5" s="12" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="U5" s="10"/>
       <c r="V5" s="11" t="s">
@@ -2072,7 +2076,7 @@
       <c r="R6" s="5"/>
       <c r="S6" s="13"/>
       <c r="T6" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="U6" s="5"/>
       <c r="V6" s="14" t="s">
@@ -2120,7 +2124,7 @@
         <v>The given name of the person.</v>
       </c>
       <c r="T7" s="29" t="s">
-        <v>22</v>
+        <v>209</v>
       </c>
       <c r="U7" s="15"/>
       <c r="V7" s="14">
@@ -2136,7 +2140,7 @@
       </c>
       <c r="Y7" s="15"/>
       <c r="Z7" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA7" s="5"/>
     </row>
@@ -2172,7 +2176,7 @@
         <v>The given name of the person.</v>
       </c>
       <c r="T8" s="29" t="s">
-        <v>22</v>
+        <v>209</v>
       </c>
       <c r="U8" s="15"/>
       <c r="V8" s="14">
@@ -2188,7 +2192,7 @@
       </c>
       <c r="Y8" s="15"/>
       <c r="Z8" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA8" s="5"/>
     </row>
@@ -2196,7 +2200,7 @@
       <c r="A9" s="1"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -2226,7 +2230,7 @@
     <row r="10" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -2255,11 +2259,11 @@
       <c r="AA10" s="3"/>
     </row>
     <row r="11" spans="1:29" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23">
-        <v>3</v>
+      <c r="A11" s="49">
+        <v>2</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
@@ -2283,13 +2287,13 @@
       <c r="P11" s="26"/>
       <c r="Q11" s="26"/>
       <c r="R11" s="26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="S11" s="26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="T11" s="30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U11" s="42"/>
       <c r="V11" s="27" t="s">
@@ -2299,7 +2303,7 @@
       <c r="X11" s="26"/>
       <c r="Y11" s="26"/>
       <c r="Z11" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AA11" s="28"/>
     </row>
@@ -2311,7 +2315,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -2328,13 +2332,13 @@
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="S12" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="S12" s="6" t="s">
-        <v>201</v>
-      </c>
       <c r="T12" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U12" s="6"/>
       <c r="V12" s="19" t="s">
@@ -2347,14 +2351,12 @@
       <c r="AA12" s="7"/>
     </row>
     <row r="13" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
-        <v>2</v>
-      </c>
+      <c r="A13" s="44"/>
       <c r="B13" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>202</v>
+        <v>7</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -2373,7 +2375,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="12" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="U13" s="10"/>
       <c r="V13" s="11" t="s">
@@ -2412,7 +2414,7 @@
       <c r="R14" s="5"/>
       <c r="S14" s="13"/>
       <c r="T14" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="U14" s="5"/>
       <c r="V14" s="14" t="s">
@@ -2420,7 +2422,9 @@
       </c>
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
-      <c r="Y14" s="16"/>
+      <c r="Y14" s="16" t="s">
+        <v>17</v>
+      </c>
       <c r="Z14" s="5"/>
       <c r="AA14" s="5" t="s">
         <v>2</v>
@@ -2458,7 +2462,7 @@
         <v>The given name of the person.</v>
       </c>
       <c r="T15" s="29" t="s">
-        <v>22</v>
+        <v>209</v>
       </c>
       <c r="U15" s="15"/>
       <c r="V15" s="14">
@@ -2474,7 +2478,7 @@
       </c>
       <c r="Y15" s="15"/>
       <c r="Z15" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA15" s="5"/>
     </row>
@@ -2506,11 +2510,11 @@
         <v>Family name</v>
       </c>
       <c r="S16" s="5" t="str">
-        <f>'IR-DED'!$D$8</f>
-        <v>The family name of the person.</v>
+        <f>'IR-DED'!$D$7</f>
+        <v>The given name of the person.</v>
       </c>
       <c r="T16" s="29" t="s">
-        <v>22</v>
+        <v>209</v>
       </c>
       <c r="U16" s="15"/>
       <c r="V16" s="14">
@@ -2526,7 +2530,7 @@
       </c>
       <c r="Y16" s="15"/>
       <c r="Z16" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA16" s="5"/>
     </row>
@@ -2534,7 +2538,7 @@
       <c r="A17" s="1"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -2564,7 +2568,7 @@
     <row r="18" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -2594,10 +2598,10 @@
     </row>
     <row r="19" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C19" s="26"/>
       <c r="D19" s="26"/>
@@ -2621,13 +2625,13 @@
       <c r="P19" s="26"/>
       <c r="Q19" s="26"/>
       <c r="R19" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S19" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="T19" s="30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U19" s="42"/>
       <c r="V19" s="27" t="s">
@@ -2637,7 +2641,7 @@
       <c r="X19" s="26"/>
       <c r="Y19" s="26"/>
       <c r="Z19" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AA19" s="28"/>
     </row>
@@ -2649,7 +2653,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -2666,13 +2670,13 @@
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
       <c r="R20" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="S20" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="S20" s="6" t="s">
-        <v>201</v>
-      </c>
       <c r="T20" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U20" s="6"/>
       <c r="V20" s="19" t="s">
@@ -2692,7 +2696,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>202</v>
+        <v>7</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -2711,7 +2715,7 @@
       <c r="R21" s="10"/>
       <c r="S21" s="10"/>
       <c r="T21" s="12" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="U21" s="10"/>
       <c r="V21" s="11" t="s">
@@ -2750,7 +2754,7 @@
       <c r="R22" s="5"/>
       <c r="S22" s="13"/>
       <c r="T22" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="U22" s="5"/>
       <c r="V22" s="14" t="s">
@@ -2759,7 +2763,7 @@
       <c r="W22" s="5"/>
       <c r="X22" s="5"/>
       <c r="Y22" s="16" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Z22" s="5"/>
       <c r="AA22" s="5" t="s">
@@ -2831,7 +2835,7 @@
         <v>The given name of the person.</v>
       </c>
       <c r="T24" s="29" t="s">
-        <v>22</v>
+        <v>209</v>
       </c>
       <c r="U24" s="15"/>
       <c r="V24" s="14">
@@ -2847,7 +2851,7 @@
       </c>
       <c r="Y24" s="15"/>
       <c r="Z24" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA24" s="5"/>
     </row>
@@ -2883,7 +2887,7 @@
         <v>The family name of the person.</v>
       </c>
       <c r="T25" s="29" t="s">
-        <v>22</v>
+        <v>209</v>
       </c>
       <c r="U25" s="15"/>
       <c r="V25" s="14">
@@ -2899,7 +2903,7 @@
       </c>
       <c r="Y25" s="15"/>
       <c r="Z25" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA25" s="5"/>
     </row>
@@ -2908,7 +2912,7 @@
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -2957,14 +2961,14 @@
       <c r="R27" s="5"/>
       <c r="S27" s="5"/>
       <c r="T27" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="U27" s="14"/>
       <c r="V27" s="14"/>
       <c r="W27" s="5"/>
       <c r="X27" s="5"/>
       <c r="Y27" s="47" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
@@ -3001,7 +3005,7 @@
         <v>The age of the person expressed as the positive integer number of years.</v>
       </c>
       <c r="T28" s="14" t="s">
-        <v>22</v>
+        <v>209</v>
       </c>
       <c r="U28" s="5"/>
       <c r="V28" s="14">
@@ -3017,7 +3021,7 @@
       </c>
       <c r="Y28" s="20"/>
       <c r="Z28" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA28" s="5"/>
     </row>
@@ -3053,7 +3057,7 @@
         <v>The minimum age required expressed in years.</v>
       </c>
       <c r="T29" s="32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U29" s="43">
         <v>16</v>
@@ -3071,7 +3075,7 @@
       </c>
       <c r="Y29" s="34"/>
       <c r="Z29" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AA29" s="31"/>
     </row>
@@ -3080,7 +3084,7 @@
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -3110,7 +3114,7 @@
       <c r="A31" s="1"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -3140,7 +3144,7 @@
     <row r="32" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -3173,7 +3177,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C33" s="26"/>
       <c r="D33" s="26"/>
@@ -3197,13 +3201,13 @@
       <c r="P33" s="26"/>
       <c r="Q33" s="26"/>
       <c r="R33" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="S33" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="S33" s="26" t="s">
-        <v>188</v>
-      </c>
       <c r="T33" s="30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U33" s="42"/>
       <c r="V33" s="27" t="s">
@@ -3213,7 +3217,7 @@
       <c r="X33" s="26"/>
       <c r="Y33" s="26"/>
       <c r="Z33" s="28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA33" s="28"/>
     </row>
@@ -3248,7 +3252,7 @@
         <v>4</v>
       </c>
       <c r="T34" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U34" s="6"/>
       <c r="V34" s="19" t="s">
@@ -3287,7 +3291,7 @@
       <c r="R35" s="10"/>
       <c r="S35" s="10"/>
       <c r="T35" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="U35" s="10"/>
       <c r="V35" s="11" t="s">
@@ -3326,7 +3330,7 @@
       <c r="R36" s="5"/>
       <c r="S36" s="13"/>
       <c r="T36" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="U36" s="5"/>
       <c r="V36" s="14" t="s">
@@ -3359,9 +3363,8 @@
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
-      <c r="Q37" s="5">
-        <f>'IR-DED'!B2</f>
-        <v>0</v>
+      <c r="Q37" s="5" t="s">
+        <v>210</v>
       </c>
       <c r="R37" s="5" t="str">
         <f>'IR-DED'!$C$16</f>
@@ -3372,7 +3375,7 @@
         <v>The name of the organisation as registered in an official registry.</v>
       </c>
       <c r="T37" s="29" t="s">
-        <v>22</v>
+        <v>209</v>
       </c>
       <c r="U37" s="15"/>
       <c r="V37" s="14">
@@ -3388,7 +3391,7 @@
       </c>
       <c r="Y37" s="15"/>
       <c r="Z37" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA37" s="5"/>
     </row>
@@ -3424,7 +3427,7 @@
         <v>The identifier number of the organisation. E.g. the BRIS EUID, a LEI number, etc.</v>
       </c>
       <c r="T38" s="29" t="s">
-        <v>22</v>
+        <v>209</v>
       </c>
       <c r="U38" s="15"/>
       <c r="V38" s="14">
@@ -3440,7 +3443,7 @@
       </c>
       <c r="Y38" s="15"/>
       <c r="Z38" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA38" s="5"/>
     </row>
@@ -3448,7 +3451,7 @@
       <c r="A39" s="1"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
@@ -3496,13 +3499,13 @@
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
       <c r="R40" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="S40" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="S40" s="13" t="s">
-        <v>196</v>
-      </c>
       <c r="T40" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="U40" s="5"/>
       <c r="V40" s="14" t="s">
@@ -3548,10 +3551,10 @@
         <v>The Identifier of an evidence.</v>
       </c>
       <c r="T41" s="14" t="s">
-        <v>22</v>
+        <v>209</v>
       </c>
       <c r="U41" s="45" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="V41" s="17">
         <v>1</v>
@@ -3566,7 +3569,7 @@
       </c>
       <c r="Y41" s="20"/>
       <c r="Z41" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA41" s="5"/>
     </row>
@@ -3602,10 +3605,10 @@
         <v>The URL where to download an evidence from.</v>
       </c>
       <c r="T42" s="14" t="s">
-        <v>22</v>
+        <v>209</v>
       </c>
       <c r="U42" s="45" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V42" s="17" t="s">
         <v>10</v>
@@ -3620,7 +3623,7 @@
       </c>
       <c r="Y42" s="20"/>
       <c r="Z42" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA42" s="5"/>
     </row>
@@ -3656,10 +3659,10 @@
         <v>Type of evidence.</v>
       </c>
       <c r="T43" s="32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U43" s="32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V43" s="33">
         <v>1</v>
@@ -3674,7 +3677,7 @@
       </c>
       <c r="Y43" s="34"/>
       <c r="Z43" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AA43" s="31"/>
     </row>
@@ -3710,10 +3713,10 @@
         <v>The version identifier of the model (or template) used to express the evidence.</v>
       </c>
       <c r="T44" s="32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U44" s="43" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="V44" s="33" t="s">
         <v>10</v>
@@ -3728,7 +3731,7 @@
       </c>
       <c r="Y44" s="34"/>
       <c r="Z44" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AA44" s="31"/>
     </row>
@@ -3736,7 +3739,7 @@
       <c r="A45" s="1"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -3766,7 +3769,7 @@
     <row r="46" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -3799,7 +3802,7 @@
         <v>5</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C47" s="26"/>
       <c r="D47" s="26"/>
@@ -3823,13 +3826,13 @@
       <c r="P47" s="26"/>
       <c r="Q47" s="26"/>
       <c r="R47" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="S47" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="S47" s="26" t="s">
-        <v>190</v>
-      </c>
       <c r="T47" s="30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U47" s="42"/>
       <c r="V47" s="27" t="s">
@@ -3839,7 +3842,7 @@
       <c r="X47" s="26"/>
       <c r="Y47" s="26"/>
       <c r="Z47" s="28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA47" s="28"/>
     </row>
@@ -3874,7 +3877,7 @@
         <v>4</v>
       </c>
       <c r="T48" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U48" s="6"/>
       <c r="V48" s="19" t="s">
@@ -3913,7 +3916,7 @@
       <c r="R49" s="10"/>
       <c r="S49" s="10"/>
       <c r="T49" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="U49" s="10"/>
       <c r="V49" s="11" t="s">
@@ -3952,7 +3955,7 @@
       <c r="R50" s="5"/>
       <c r="S50" s="13"/>
       <c r="T50" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="U50" s="5"/>
       <c r="V50" s="14" t="s">
@@ -3998,7 +4001,7 @@
         <v>The name of the organisation as registered in an official registry.</v>
       </c>
       <c r="T51" s="29" t="s">
-        <v>22</v>
+        <v>209</v>
       </c>
       <c r="U51" s="15"/>
       <c r="V51" s="14">
@@ -4014,7 +4017,7 @@
       </c>
       <c r="Y51" s="15"/>
       <c r="Z51" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA51" s="5"/>
     </row>
@@ -4050,7 +4053,7 @@
         <v>The identifier number of the organisation. E.g. the BRIS EUID, a LEI number, etc.</v>
       </c>
       <c r="T52" s="29" t="s">
-        <v>22</v>
+        <v>209</v>
       </c>
       <c r="U52" s="15"/>
       <c r="V52" s="14">
@@ -4066,7 +4069,7 @@
       </c>
       <c r="Y52" s="15"/>
       <c r="Z52" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA52" s="5"/>
     </row>
@@ -4074,7 +4077,7 @@
       <c r="A53" s="1"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
@@ -4122,13 +4125,13 @@
       <c r="P54" s="5"/>
       <c r="Q54" s="5"/>
       <c r="R54" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="S54" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="S54" s="13" t="s">
-        <v>196</v>
-      </c>
       <c r="T54" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="U54" s="5"/>
       <c r="V54" s="14" t="s">
@@ -4174,10 +4177,10 @@
         <v>The Identifier of an evidence.</v>
       </c>
       <c r="T55" s="14" t="s">
-        <v>22</v>
+        <v>209</v>
       </c>
       <c r="U55" s="45" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="V55" s="17">
         <v>1</v>
@@ -4192,7 +4195,7 @@
       </c>
       <c r="Y55" s="20"/>
       <c r="Z55" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA55" s="5"/>
     </row>
@@ -4228,10 +4231,10 @@
         <v>The URL where to download an evidence from.</v>
       </c>
       <c r="T56" s="14" t="s">
-        <v>22</v>
+        <v>209</v>
       </c>
       <c r="U56" s="45" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V56" s="17" t="s">
         <v>10</v>
@@ -4246,7 +4249,7 @@
       </c>
       <c r="Y56" s="20"/>
       <c r="Z56" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA56" s="5"/>
     </row>
@@ -4282,10 +4285,10 @@
         <v>Type of evidence.</v>
       </c>
       <c r="T57" s="32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U57" s="32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V57" s="33">
         <v>1</v>
@@ -4300,7 +4303,7 @@
       </c>
       <c r="Y57" s="34"/>
       <c r="Z57" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AA57" s="31"/>
     </row>
@@ -4336,10 +4339,10 @@
         <v>The version identifier of the model (or template) used to express the evidence.</v>
       </c>
       <c r="T58" s="32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U58" s="43" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="V58" s="33" t="s">
         <v>10</v>
@@ -4354,7 +4357,7 @@
       </c>
       <c r="Y58" s="34"/>
       <c r="Z58" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AA58" s="31"/>
     </row>
@@ -4362,7 +4365,7 @@
       <c r="A59" s="1"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
@@ -4392,7 +4395,7 @@
     <row r="60" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -4425,7 +4428,7 @@
         <v>6</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C61" s="26"/>
       <c r="D61" s="26"/>
@@ -4449,13 +4452,13 @@
       <c r="P61" s="26"/>
       <c r="Q61" s="26"/>
       <c r="R61" s="26" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="S61" s="26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="T61" s="30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U61" s="42"/>
       <c r="V61" s="27" t="s">
@@ -4465,7 +4468,7 @@
       <c r="X61" s="26"/>
       <c r="Y61" s="26"/>
       <c r="Z61" s="28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA61" s="28"/>
     </row>
@@ -4500,7 +4503,7 @@
         <v>4</v>
       </c>
       <c r="T62" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U62" s="6"/>
       <c r="V62" s="19" t="s">
@@ -4539,7 +4542,7 @@
       <c r="R63" s="10"/>
       <c r="S63" s="10"/>
       <c r="T63" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="U63" s="10"/>
       <c r="V63" s="11" t="s">
@@ -4578,7 +4581,7 @@
       <c r="R64" s="5"/>
       <c r="S64" s="13"/>
       <c r="T64" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="U64" s="5"/>
       <c r="V64" s="14" t="s">
@@ -4624,10 +4627,10 @@
         <v>The Identifier of an evidence.</v>
       </c>
       <c r="T65" s="14" t="s">
-        <v>22</v>
+        <v>209</v>
       </c>
       <c r="U65" s="45" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="V65" s="17">
         <v>1</v>
@@ -4642,7 +4645,7 @@
       </c>
       <c r="Y65" s="20"/>
       <c r="Z65" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA65" s="5"/>
     </row>
@@ -4678,10 +4681,10 @@
         <v>The URL where to download an evidence from.</v>
       </c>
       <c r="T66" s="14" t="s">
-        <v>22</v>
+        <v>209</v>
       </c>
       <c r="U66" s="45" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V66" s="17" t="s">
         <v>10</v>
@@ -4696,7 +4699,7 @@
       </c>
       <c r="Y66" s="20"/>
       <c r="Z66" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA66" s="5"/>
     </row>
@@ -4732,10 +4735,10 @@
         <v>Type of evidence.</v>
       </c>
       <c r="T67" s="32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U67" s="32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V67" s="33">
         <v>1</v>
@@ -4750,7 +4753,7 @@
       </c>
       <c r="Y67" s="34"/>
       <c r="Z67" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AA67" s="31"/>
     </row>
@@ -4786,10 +4789,10 @@
         <v>The version identifier of the model (or template) used to express the evidence.</v>
       </c>
       <c r="T68" s="32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U68" s="43" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="V68" s="33" t="s">
         <v>10</v>
@@ -4804,7 +4807,7 @@
       </c>
       <c r="Y68" s="34"/>
       <c r="Z68" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AA68" s="31"/>
     </row>
@@ -4812,7 +4815,7 @@
       <c r="A69" s="1"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -4842,7 +4845,7 @@
     <row r="70" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -4906,33 +4909,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B3" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>32</v>
-      </c>
       <c r="E3" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="35" t="s">
-        <v>72</v>
-      </c>
       <c r="G3" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H3" s="35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -4940,16 +4943,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
         <v>35</v>
       </c>
-      <c r="E4" t="s">
-        <v>36</v>
-      </c>
       <c r="F4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -4957,16 +4960,16 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
         <v>37</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>38</v>
       </c>
-      <c r="E5" t="s">
-        <v>39</v>
-      </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -4974,22 +4977,22 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
         <v>40</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" t="s">
         <v>41</v>
       </c>
-      <c r="D6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" t="s">
-        <v>42</v>
-      </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -4997,22 +5000,22 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
         <v>44</v>
       </c>
-      <c r="D7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" t="s">
-        <v>45</v>
-      </c>
       <c r="F7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -5020,22 +5023,22 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -5043,22 +5046,22 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
         <v>49</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>50</v>
       </c>
-      <c r="D9" t="s">
-        <v>51</v>
-      </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -5066,22 +5069,22 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" t="s">
         <v>56</v>
       </c>
-      <c r="C10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" t="s">
-        <v>57</v>
-      </c>
       <c r="F10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -5089,22 +5092,22 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" t="s">
         <v>60</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" t="s">
         <v>61</v>
       </c>
-      <c r="D11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" t="s">
-        <v>62</v>
-      </c>
       <c r="F11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -5112,25 +5115,25 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
         <v>63</v>
       </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>64</v>
-      </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -5138,25 +5141,25 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" t="s">
         <v>66</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>67</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>68</v>
       </c>
-      <c r="E13" t="s">
-        <v>69</v>
-      </c>
       <c r="F13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" t="s">
         <v>81</v>
-      </c>
-      <c r="G13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -5164,22 +5167,22 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" t="s">
         <v>83</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>84</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>85</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>86</v>
       </c>
-      <c r="F14" t="s">
-        <v>87</v>
-      </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -5187,22 +5190,22 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" t="s">
         <v>88</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>89</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>90</v>
       </c>
-      <c r="E15" t="s">
-        <v>91</v>
-      </c>
       <c r="F15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -5210,22 +5213,22 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" t="s">
         <v>92</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>93</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>94</v>
       </c>
-      <c r="E16" t="s">
-        <v>95</v>
-      </c>
       <c r="F16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -5233,22 +5236,22 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" t="s">
         <v>96</v>
       </c>
-      <c r="C17" t="s">
-        <v>93</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>97</v>
       </c>
-      <c r="E17" t="s">
-        <v>98</v>
-      </c>
       <c r="F17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -5256,25 +5259,25 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" t="s">
         <v>99</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>100</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>101</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" t="s">
         <v>102</v>
-      </c>
-      <c r="F18" t="s">
-        <v>81</v>
-      </c>
-      <c r="G18" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -5282,25 +5285,25 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D19" t="s">
+        <v>173</v>
+      </c>
+      <c r="E19" t="s">
+        <v>150</v>
+      </c>
+      <c r="F19" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" t="s">
+        <v>152</v>
+      </c>
+      <c r="H19" t="s">
         <v>174</v>
-      </c>
-      <c r="E19" t="s">
-        <v>151</v>
-      </c>
-      <c r="F19" t="s">
-        <v>75</v>
-      </c>
-      <c r="G19" t="s">
-        <v>153</v>
-      </c>
-      <c r="H19" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -5308,22 +5311,22 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D20" t="s">
+        <v>179</v>
+      </c>
+      <c r="E20" t="s">
         <v>178</v>
       </c>
-      <c r="C20" t="s">
+      <c r="F20" t="s">
         <v>182</v>
       </c>
-      <c r="D20" t="s">
-        <v>180</v>
-      </c>
-      <c r="E20" t="s">
-        <v>179</v>
-      </c>
-      <c r="F20" t="s">
-        <v>183</v>
-      </c>
       <c r="G20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -5355,37 +5358,37 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B3" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>32</v>
-      </c>
       <c r="E3" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="37" t="s">
-        <v>72</v>
-      </c>
       <c r="G3" s="37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H3" s="38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -5393,13 +5396,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" t="s">
         <v>104</v>
-      </c>
-      <c r="C4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -5407,13 +5410,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" t="s">
         <v>106</v>
       </c>
-      <c r="C5" t="s">
-        <v>107</v>
-      </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -5421,13 +5424,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" t="s">
         <v>110</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>111</v>
-      </c>
-      <c r="D6" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -5435,25 +5438,25 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" t="s">
         <v>113</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E7" t="s">
         <v>114</v>
       </c>
-      <c r="D7" t="s">
-        <v>163</v>
-      </c>
-      <c r="E7" t="s">
-        <v>115</v>
-      </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -5461,22 +5464,22 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" t="s">
         <v>116</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8" t="s">
         <v>117</v>
       </c>
-      <c r="D8" t="s">
-        <v>162</v>
-      </c>
-      <c r="E8" t="s">
-        <v>118</v>
-      </c>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -5484,22 +5487,22 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -5507,22 +5510,22 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" t="s">
+        <v>159</v>
+      </c>
+      <c r="E10" t="s">
         <v>129</v>
       </c>
-      <c r="D10" t="s">
-        <v>160</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>130</v>
       </c>
-      <c r="F10" t="s">
-        <v>131</v>
-      </c>
       <c r="G10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -5530,22 +5533,22 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F11" t="s">
         <v>130</v>
       </c>
-      <c r="F11" t="s">
-        <v>131</v>
-      </c>
       <c r="G11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -5553,22 +5556,22 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E12" t="s">
         <v>133</v>
       </c>
-      <c r="D12" t="s">
-        <v>158</v>
-      </c>
-      <c r="E12" t="s">
-        <v>134</v>
-      </c>
       <c r="F12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -5576,22 +5579,22 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -5599,22 +5602,22 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" t="s">
+        <v>155</v>
+      </c>
+      <c r="E14" t="s">
         <v>136</v>
       </c>
-      <c r="D14" t="s">
-        <v>156</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>137</v>
       </c>
-      <c r="F14" t="s">
-        <v>138</v>
-      </c>
       <c r="G14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -5622,22 +5625,22 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" t="s">
+        <v>154</v>
+      </c>
+      <c r="E15" t="s">
         <v>126</v>
       </c>
-      <c r="C15" t="s">
-        <v>139</v>
-      </c>
-      <c r="D15" t="s">
-        <v>155</v>
-      </c>
-      <c r="E15" t="s">
-        <v>127</v>
-      </c>
       <c r="F15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -5645,28 +5648,28 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E16" t="s">
+        <v>151</v>
+      </c>
+      <c r="F16" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" t="s">
         <v>152</v>
       </c>
-      <c r="F16" t="s">
-        <v>81</v>
-      </c>
-      <c r="G16" t="s">
-        <v>153</v>
-      </c>
       <c r="H16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -5674,25 +5677,25 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
+        <v>167</v>
+      </c>
+      <c r="C17" t="s">
+        <v>166</v>
+      </c>
+      <c r="D17" t="s">
         <v>168</v>
       </c>
-      <c r="C17" t="s">
-        <v>167</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>169</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" t="s">
+        <v>152</v>
+      </c>
+      <c r="H17" t="s">
         <v>170</v>
-      </c>
-      <c r="F17" t="s">
-        <v>75</v>
-      </c>
-      <c r="G17" t="s">
-        <v>153</v>
-      </c>
-      <c r="H17" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">

--- a/02-Vocabularies/SP-InformationRequirements.xlsx
+++ b/02-Vocabularies/SP-InformationRequirements.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="208">
   <si>
     <t>Cardinality</t>
   </si>
@@ -594,16 +594,7 @@
     <t>Default information required about the mandatee or representative legal person.</t>
   </si>
   <si>
-    <t>GROUP</t>
-  </si>
-  <si>
     <t>CRITERION</t>
-  </si>
-  <si>
-    <t>SUBCRITERION</t>
-  </si>
-  <si>
-    <t>LEGISLATION</t>
   </si>
   <si>
     <t>Mandates</t>
@@ -1746,7 +1737,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1882,10 +1873,10 @@
         <v>141</v>
       </c>
       <c r="R2" s="25" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="S2" s="25" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="T2" s="25" t="s">
         <v>142</v>
@@ -1917,7 +1908,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
@@ -1944,11 +1935,9 @@
         <v>184</v>
       </c>
       <c r="S3" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="T3" s="30" t="s">
-        <v>191</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="T3" s="30"/>
       <c r="U3" s="42"/>
       <c r="V3" s="27" t="s">
         <v>2</v>
@@ -1959,7 +1948,7 @@
         <v>11</v>
       </c>
       <c r="Z3" s="28" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AA3" s="28"/>
     </row>
@@ -1971,7 +1960,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -1988,14 +1977,12 @@
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="T4" s="8" t="s">
-        <v>192</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="T4" s="8"/>
       <c r="U4" s="6"/>
       <c r="V4" s="19" t="s">
         <v>5</v>
@@ -2034,9 +2021,7 @@
       <c r="Q5" s="10"/>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
-      <c r="T5" s="12" t="s">
-        <v>193</v>
-      </c>
+      <c r="T5" s="12"/>
       <c r="U5" s="10"/>
       <c r="V5" s="11" t="s">
         <v>5</v>
@@ -2075,9 +2060,7 @@
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
       <c r="S6" s="13"/>
-      <c r="T6" s="14" t="s">
-        <v>190</v>
-      </c>
+      <c r="T6" s="14"/>
       <c r="U6" s="5"/>
       <c r="V6" s="14" t="s">
         <v>9</v>
@@ -2124,7 +2107,7 @@
         <v>The given name of the person.</v>
       </c>
       <c r="T7" s="29" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="U7" s="15"/>
       <c r="V7" s="14">
@@ -2176,7 +2159,7 @@
         <v>The given name of the person.</v>
       </c>
       <c r="T8" s="29" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="U8" s="15"/>
       <c r="V8" s="14">
@@ -2230,7 +2213,7 @@
     <row r="10" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -2263,7 +2246,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
@@ -2292,9 +2275,7 @@
       <c r="S11" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="T11" s="30" t="s">
-        <v>191</v>
-      </c>
+      <c r="T11" s="30"/>
       <c r="U11" s="42"/>
       <c r="V11" s="27" t="s">
         <v>2</v>
@@ -2303,7 +2284,7 @@
       <c r="X11" s="26"/>
       <c r="Y11" s="26"/>
       <c r="Z11" s="28" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AA11" s="28"/>
     </row>
@@ -2315,7 +2296,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -2332,14 +2313,12 @@
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="S12" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="T12" s="8" t="s">
-        <v>192</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="T12" s="8"/>
       <c r="U12" s="6"/>
       <c r="V12" s="19" t="s">
         <v>5</v>
@@ -2374,9 +2353,7 @@
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
-      <c r="T13" s="12" t="s">
-        <v>193</v>
-      </c>
+      <c r="T13" s="12"/>
       <c r="U13" s="10"/>
       <c r="V13" s="11" t="s">
         <v>5</v>
@@ -2413,9 +2390,7 @@
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
       <c r="S14" s="13"/>
-      <c r="T14" s="14" t="s">
-        <v>190</v>
-      </c>
+      <c r="T14" s="14"/>
       <c r="U14" s="5"/>
       <c r="V14" s="14" t="s">
         <v>9</v>
@@ -2462,7 +2437,7 @@
         <v>The given name of the person.</v>
       </c>
       <c r="T15" s="29" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="U15" s="15"/>
       <c r="V15" s="14">
@@ -2514,7 +2489,7 @@
         <v>The given name of the person.</v>
       </c>
       <c r="T16" s="29" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="U16" s="15"/>
       <c r="V16" s="14">
@@ -2568,7 +2543,7 @@
     <row r="18" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -2601,7 +2576,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C19" s="26"/>
       <c r="D19" s="26"/>
@@ -2628,11 +2603,9 @@
         <v>176</v>
       </c>
       <c r="S19" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="T19" s="30" t="s">
-        <v>191</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="T19" s="30"/>
       <c r="U19" s="42"/>
       <c r="V19" s="27" t="s">
         <v>2</v>
@@ -2641,7 +2614,7 @@
       <c r="X19" s="26"/>
       <c r="Y19" s="26"/>
       <c r="Z19" s="28" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AA19" s="28"/>
     </row>
@@ -2653,7 +2626,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -2670,14 +2643,12 @@
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
       <c r="R20" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="S20" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="T20" s="8" t="s">
-        <v>192</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="T20" s="8"/>
       <c r="U20" s="6"/>
       <c r="V20" s="19" t="s">
         <v>5</v>
@@ -2714,9 +2685,7 @@
       <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
       <c r="S21" s="10"/>
-      <c r="T21" s="12" t="s">
-        <v>193</v>
-      </c>
+      <c r="T21" s="12"/>
       <c r="U21" s="10"/>
       <c r="V21" s="11" t="s">
         <v>5</v>
@@ -2753,9 +2722,7 @@
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="13"/>
-      <c r="T22" s="14" t="s">
-        <v>190</v>
-      </c>
+      <c r="T22" s="14"/>
       <c r="U22" s="5"/>
       <c r="V22" s="14" t="s">
         <v>9</v>
@@ -2763,7 +2730,7 @@
       <c r="W22" s="5"/>
       <c r="X22" s="5"/>
       <c r="Y22" s="16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="Z22" s="5"/>
       <c r="AA22" s="5" t="s">
@@ -2835,7 +2802,7 @@
         <v>The given name of the person.</v>
       </c>
       <c r="T24" s="29" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="U24" s="15"/>
       <c r="V24" s="14">
@@ -2887,7 +2854,7 @@
         <v>The family name of the person.</v>
       </c>
       <c r="T25" s="29" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="U25" s="15"/>
       <c r="V25" s="14">
@@ -2960,15 +2927,13 @@
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
       <c r="S27" s="5"/>
-      <c r="T27" s="17" t="s">
-        <v>190</v>
-      </c>
+      <c r="T27" s="17"/>
       <c r="U27" s="14"/>
       <c r="V27" s="14"/>
       <c r="W27" s="5"/>
       <c r="X27" s="5"/>
       <c r="Y27" s="47" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
@@ -3005,7 +2970,7 @@
         <v>The age of the person expressed as the positive integer number of years.</v>
       </c>
       <c r="T28" s="14" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="U28" s="5"/>
       <c r="V28" s="14">
@@ -3206,9 +3171,7 @@
       <c r="S33" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="T33" s="30" t="s">
-        <v>191</v>
-      </c>
+      <c r="T33" s="30"/>
       <c r="U33" s="42"/>
       <c r="V33" s="27" t="s">
         <v>2</v>
@@ -3251,9 +3214,7 @@
       <c r="S34" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="T34" s="8" t="s">
-        <v>192</v>
-      </c>
+      <c r="T34" s="8"/>
       <c r="U34" s="6"/>
       <c r="V34" s="19" t="s">
         <v>5</v>
@@ -3290,9 +3251,7 @@
       <c r="Q35" s="10"/>
       <c r="R35" s="10"/>
       <c r="S35" s="10"/>
-      <c r="T35" s="12" t="s">
-        <v>193</v>
-      </c>
+      <c r="T35" s="12"/>
       <c r="U35" s="10"/>
       <c r="V35" s="11" t="s">
         <v>5</v>
@@ -3329,9 +3288,7 @@
       <c r="Q36" s="5"/>
       <c r="R36" s="5"/>
       <c r="S36" s="13"/>
-      <c r="T36" s="14" t="s">
-        <v>190</v>
-      </c>
+      <c r="T36" s="14"/>
       <c r="U36" s="5"/>
       <c r="V36" s="14" t="s">
         <v>9</v>
@@ -3364,7 +3321,7 @@
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
       <c r="Q37" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="R37" s="5" t="str">
         <f>'IR-DED'!$C$16</f>
@@ -3375,7 +3332,7 @@
         <v>The name of the organisation as registered in an official registry.</v>
       </c>
       <c r="T37" s="29" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="U37" s="15"/>
       <c r="V37" s="14">
@@ -3427,7 +3384,7 @@
         <v>The identifier number of the organisation. E.g. the BRIS EUID, a LEI number, etc.</v>
       </c>
       <c r="T38" s="29" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="U38" s="15"/>
       <c r="V38" s="14">
@@ -3499,14 +3456,12 @@
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
       <c r="R40" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="S40" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="T40" s="14" t="s">
-        <v>190</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="T40" s="14"/>
       <c r="U40" s="5"/>
       <c r="V40" s="14" t="s">
         <v>9</v>
@@ -3551,7 +3506,7 @@
         <v>The Identifier of an evidence.</v>
       </c>
       <c r="T41" s="14" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="U41" s="45" t="s">
         <v>149</v>
@@ -3605,7 +3560,7 @@
         <v>The URL where to download an evidence from.</v>
       </c>
       <c r="T42" s="14" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="U42" s="45" t="s">
         <v>180</v>
@@ -3662,7 +3617,7 @@
         <v>23</v>
       </c>
       <c r="U43" s="32" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="V43" s="33">
         <v>1</v>
@@ -3831,9 +3786,7 @@
       <c r="S47" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="T47" s="30" t="s">
-        <v>191</v>
-      </c>
+      <c r="T47" s="30"/>
       <c r="U47" s="42"/>
       <c r="V47" s="27" t="s">
         <v>2</v>
@@ -3876,9 +3829,7 @@
       <c r="S48" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="T48" s="8" t="s">
-        <v>192</v>
-      </c>
+      <c r="T48" s="8"/>
       <c r="U48" s="6"/>
       <c r="V48" s="19" t="s">
         <v>5</v>
@@ -3915,9 +3866,7 @@
       <c r="Q49" s="10"/>
       <c r="R49" s="10"/>
       <c r="S49" s="10"/>
-      <c r="T49" s="12" t="s">
-        <v>193</v>
-      </c>
+      <c r="T49" s="12"/>
       <c r="U49" s="10"/>
       <c r="V49" s="11" t="s">
         <v>5</v>
@@ -3954,9 +3903,7 @@
       <c r="Q50" s="5"/>
       <c r="R50" s="5"/>
       <c r="S50" s="13"/>
-      <c r="T50" s="14" t="s">
-        <v>190</v>
-      </c>
+      <c r="T50" s="14"/>
       <c r="U50" s="5"/>
       <c r="V50" s="14" t="s">
         <v>9</v>
@@ -4001,7 +3948,7 @@
         <v>The name of the organisation as registered in an official registry.</v>
       </c>
       <c r="T51" s="29" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="U51" s="15"/>
       <c r="V51" s="14">
@@ -4053,7 +4000,7 @@
         <v>The identifier number of the organisation. E.g. the BRIS EUID, a LEI number, etc.</v>
       </c>
       <c r="T52" s="29" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="U52" s="15"/>
       <c r="V52" s="14">
@@ -4125,14 +4072,12 @@
       <c r="P54" s="5"/>
       <c r="Q54" s="5"/>
       <c r="R54" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="S54" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="T54" s="14" t="s">
-        <v>190</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="T54" s="14"/>
       <c r="U54" s="5"/>
       <c r="V54" s="14" t="s">
         <v>9</v>
@@ -4177,7 +4122,7 @@
         <v>The Identifier of an evidence.</v>
       </c>
       <c r="T55" s="14" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="U55" s="45" t="s">
         <v>149</v>
@@ -4231,7 +4176,7 @@
         <v>The URL where to download an evidence from.</v>
       </c>
       <c r="T56" s="14" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="U56" s="45" t="s">
         <v>180</v>
@@ -4288,7 +4233,7 @@
         <v>23</v>
       </c>
       <c r="U57" s="32" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="V57" s="33">
         <v>1</v>
@@ -4452,14 +4397,12 @@
       <c r="P61" s="26"/>
       <c r="Q61" s="26"/>
       <c r="R61" s="26" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="S61" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="T61" s="30" t="s">
-        <v>191</v>
-      </c>
+      <c r="T61" s="30"/>
       <c r="U61" s="42"/>
       <c r="V61" s="27" t="s">
         <v>2</v>
@@ -4502,9 +4445,7 @@
       <c r="S62" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="T62" s="8" t="s">
-        <v>192</v>
-      </c>
+      <c r="T62" s="8"/>
       <c r="U62" s="6"/>
       <c r="V62" s="19" t="s">
         <v>5</v>
@@ -4541,9 +4482,7 @@
       <c r="Q63" s="10"/>
       <c r="R63" s="10"/>
       <c r="S63" s="10"/>
-      <c r="T63" s="12" t="s">
-        <v>193</v>
-      </c>
+      <c r="T63" s="12"/>
       <c r="U63" s="10"/>
       <c r="V63" s="11" t="s">
         <v>5</v>
@@ -4580,9 +4519,7 @@
       <c r="Q64" s="5"/>
       <c r="R64" s="5"/>
       <c r="S64" s="13"/>
-      <c r="T64" s="14" t="s">
-        <v>190</v>
-      </c>
+      <c r="T64" s="14"/>
       <c r="U64" s="5"/>
       <c r="V64" s="14" t="s">
         <v>9</v>
@@ -4627,7 +4564,7 @@
         <v>The Identifier of an evidence.</v>
       </c>
       <c r="T65" s="14" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="U65" s="45" t="s">
         <v>149</v>
@@ -4681,7 +4618,7 @@
         <v>The URL where to download an evidence from.</v>
       </c>
       <c r="T66" s="14" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="U66" s="45" t="s">
         <v>180</v>
@@ -4738,7 +4675,7 @@
         <v>23</v>
       </c>
       <c r="U67" s="32" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="V67" s="33">
         <v>1</v>

--- a/02-Vocabularies/SP-InformationRequirements.xlsx
+++ b/02-Vocabularies/SP-InformationRequirements.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="210">
   <si>
     <t>Cardinality</t>
   </si>
@@ -600,15 +600,9 @@
     <t>Mandates</t>
   </si>
   <si>
-    <t>Group of Mandates, including also possible delegated powers</t>
-  </si>
-  <si>
     <t>EU_RPAM_Mandate</t>
   </si>
   <si>
-    <t>Mandate ID</t>
-  </si>
-  <si>
     <t>CGroup</t>
   </si>
   <si>
@@ -646,6 +640,18 @@
   </si>
   <si>
     <t>LP_REGISTERED_NAME</t>
+  </si>
+  <si>
+    <t>dc448ed3-2263-48d0-9aee-f9dd60618978</t>
+  </si>
+  <si>
+    <t>645fd780-5895-4e46-b862-90eecfe974de</t>
+  </si>
+  <si>
+    <t>Organisation Registered Name and Organisation Identifier(s)</t>
+  </si>
+  <si>
+    <t>Group of evidences, e.g. Mandates and possible delegated powers</t>
   </si>
 </sst>
 </file>
@@ -1734,7 +1740,7 @@
   <dimension ref="A1:AC70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
@@ -1873,10 +1879,10 @@
         <v>141</v>
       </c>
       <c r="R2" s="25" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="S2" s="25" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="T2" s="25" t="s">
         <v>142</v>
@@ -1908,7 +1914,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
@@ -1935,7 +1941,7 @@
         <v>184</v>
       </c>
       <c r="S3" s="26" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="T3" s="30"/>
       <c r="U3" s="42"/>
@@ -1948,7 +1954,7 @@
         <v>11</v>
       </c>
       <c r="Z3" s="28" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AA3" s="28"/>
     </row>
@@ -1960,7 +1966,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -1977,10 +1983,10 @@
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="T4" s="8"/>
       <c r="U4" s="6"/>
@@ -2107,7 +2113,7 @@
         <v>The given name of the person.</v>
       </c>
       <c r="T7" s="29" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="U7" s="15"/>
       <c r="V7" s="14">
@@ -2159,7 +2165,7 @@
         <v>The given name of the person.</v>
       </c>
       <c r="T8" s="29" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="U8" s="15"/>
       <c r="V8" s="14">
@@ -2246,7 +2252,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
@@ -2284,7 +2290,7 @@
       <c r="X11" s="26"/>
       <c r="Y11" s="26"/>
       <c r="Z11" s="28" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AA11" s="28"/>
     </row>
@@ -2296,7 +2302,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -2313,10 +2319,10 @@
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="S12" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="T12" s="8"/>
       <c r="U12" s="6"/>
@@ -2437,7 +2443,7 @@
         <v>The given name of the person.</v>
       </c>
       <c r="T15" s="29" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="U15" s="15"/>
       <c r="V15" s="14">
@@ -2489,7 +2495,7 @@
         <v>The given name of the person.</v>
       </c>
       <c r="T16" s="29" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="U16" s="15"/>
       <c r="V16" s="14">
@@ -2576,7 +2582,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C19" s="26"/>
       <c r="D19" s="26"/>
@@ -2603,7 +2609,7 @@
         <v>176</v>
       </c>
       <c r="S19" s="26" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="T19" s="30"/>
       <c r="U19" s="42"/>
@@ -2614,7 +2620,7 @@
       <c r="X19" s="26"/>
       <c r="Y19" s="26"/>
       <c r="Z19" s="28" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AA19" s="28"/>
     </row>
@@ -2626,7 +2632,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -2643,10 +2649,10 @@
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
       <c r="R20" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="S20" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="T20" s="8"/>
       <c r="U20" s="6"/>
@@ -2730,7 +2736,7 @@
       <c r="W22" s="5"/>
       <c r="X22" s="5"/>
       <c r="Y22" s="16" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Z22" s="5"/>
       <c r="AA22" s="5" t="s">
@@ -2802,7 +2808,7 @@
         <v>The given name of the person.</v>
       </c>
       <c r="T24" s="29" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="U24" s="15"/>
       <c r="V24" s="14">
@@ -2854,7 +2860,7 @@
         <v>The family name of the person.</v>
       </c>
       <c r="T25" s="29" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="U25" s="15"/>
       <c r="V25" s="14">
@@ -2933,7 +2939,7 @@
       <c r="W27" s="5"/>
       <c r="X27" s="5"/>
       <c r="Y27" s="47" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
@@ -2970,7 +2976,7 @@
         <v>The age of the person expressed as the positive integer number of years.</v>
       </c>
       <c r="T28" s="14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="U28" s="5"/>
       <c r="V28" s="14">
@@ -3287,7 +3293,9 @@
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
       <c r="R36" s="5"/>
-      <c r="S36" s="13"/>
+      <c r="S36" s="13" t="s">
+        <v>208</v>
+      </c>
       <c r="T36" s="14"/>
       <c r="U36" s="5"/>
       <c r="V36" s="14" t="s">
@@ -3295,7 +3303,9 @@
       </c>
       <c r="W36" s="5"/>
       <c r="X36" s="5"/>
-      <c r="Y36" s="16"/>
+      <c r="Y36" s="16" t="s">
+        <v>206</v>
+      </c>
       <c r="Z36" s="5"/>
       <c r="AA36" s="5" t="s">
         <v>2</v>
@@ -3321,7 +3331,7 @@
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
       <c r="Q37" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="R37" s="5" t="str">
         <f>'IR-DED'!$C$16</f>
@@ -3332,7 +3342,7 @@
         <v>The name of the organisation as registered in an official registry.</v>
       </c>
       <c r="T37" s="29" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="U37" s="15"/>
       <c r="V37" s="14">
@@ -3384,7 +3394,7 @@
         <v>The identifier number of the organisation. E.g. the BRIS EUID, a LEI number, etc.</v>
       </c>
       <c r="T38" s="29" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="U38" s="15"/>
       <c r="V38" s="14">
@@ -3459,7 +3469,7 @@
         <v>191</v>
       </c>
       <c r="S40" s="13" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="T40" s="14"/>
       <c r="U40" s="5"/>
@@ -3468,7 +3478,9 @@
       </c>
       <c r="W40" s="5"/>
       <c r="X40" s="5"/>
-      <c r="Y40" s="16"/>
+      <c r="Y40" s="16" t="s">
+        <v>207</v>
+      </c>
       <c r="Z40" s="5"/>
       <c r="AA40" s="5" t="s">
         <v>2</v>
@@ -3506,7 +3518,7 @@
         <v>The Identifier of an evidence.</v>
       </c>
       <c r="T41" s="14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="U41" s="45" t="s">
         <v>149</v>
@@ -3560,7 +3572,7 @@
         <v>The URL where to download an evidence from.</v>
       </c>
       <c r="T42" s="14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="U42" s="45" t="s">
         <v>180</v>
@@ -3617,7 +3629,7 @@
         <v>23</v>
       </c>
       <c r="U43" s="32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="V43" s="33">
         <v>1</v>
@@ -3756,7 +3768,7 @@
       <c r="A47" s="23">
         <v>5</v>
       </c>
-      <c r="B47" s="26" t="s">
+      <c r="B47" s="42" t="s">
         <v>26</v>
       </c>
       <c r="C47" s="26"/>
@@ -3948,7 +3960,7 @@
         <v>The name of the organisation as registered in an official registry.</v>
       </c>
       <c r="T51" s="29" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="U51" s="15"/>
       <c r="V51" s="14">
@@ -4000,7 +4012,7 @@
         <v>The identifier number of the organisation. E.g. the BRIS EUID, a LEI number, etc.</v>
       </c>
       <c r="T52" s="29" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="U52" s="15"/>
       <c r="V52" s="14">
@@ -4075,7 +4087,7 @@
         <v>191</v>
       </c>
       <c r="S54" s="13" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="T54" s="14"/>
       <c r="U54" s="5"/>
@@ -4084,7 +4096,9 @@
       </c>
       <c r="W54" s="5"/>
       <c r="X54" s="5"/>
-      <c r="Y54" s="16"/>
+      <c r="Y54" s="16" t="s">
+        <v>207</v>
+      </c>
       <c r="Z54" s="5"/>
       <c r="AA54" s="5" t="s">
         <v>2</v>
@@ -4122,7 +4136,7 @@
         <v>The Identifier of an evidence.</v>
       </c>
       <c r="T55" s="14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="U55" s="45" t="s">
         <v>149</v>
@@ -4176,7 +4190,7 @@
         <v>The URL where to download an evidence from.</v>
       </c>
       <c r="T56" s="14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="U56" s="45" t="s">
         <v>180</v>
@@ -4233,7 +4247,7 @@
         <v>23</v>
       </c>
       <c r="U57" s="32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="V57" s="33">
         <v>1</v>
@@ -4368,459 +4382,25 @@
       <c r="Z60" s="3"/>
       <c r="AA60" s="3"/>
     </row>
-    <row r="61" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="23">
-        <v>6</v>
-      </c>
-      <c r="B61" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="F61" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="G61" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="H61" s="26"/>
-      <c r="I61" s="26"/>
-      <c r="J61" s="26"/>
-      <c r="K61" s="26"/>
-      <c r="L61" s="26"/>
-      <c r="M61" s="26"/>
-      <c r="N61" s="26"/>
-      <c r="O61" s="26"/>
-      <c r="P61" s="26"/>
-      <c r="Q61" s="26"/>
-      <c r="R61" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="S61" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="T61" s="30"/>
-      <c r="U61" s="42"/>
-      <c r="V61" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="W61" s="26"/>
-      <c r="X61" s="26"/>
-      <c r="Y61" s="26"/>
-      <c r="Z61" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA61" s="28"/>
-    </row>
-    <row r="62" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
-      <c r="L62" s="6"/>
-      <c r="M62" s="6"/>
-      <c r="N62" s="6"/>
-      <c r="O62" s="6"/>
-      <c r="P62" s="6"/>
-      <c r="Q62" s="6"/>
-      <c r="R62" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="S62" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="T62" s="8"/>
-      <c r="U62" s="6"/>
-      <c r="V62" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="W62" s="40"/>
-      <c r="X62" s="40"/>
-      <c r="Y62" s="6"/>
-      <c r="Z62" s="8"/>
-      <c r="AA62" s="7"/>
-    </row>
-    <row r="63" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="10"/>
-      <c r="K63" s="10"/>
-      <c r="L63" s="10"/>
-      <c r="M63" s="10"/>
-      <c r="N63" s="10"/>
-      <c r="O63" s="10"/>
-      <c r="P63" s="10"/>
-      <c r="Q63" s="10"/>
-      <c r="R63" s="10"/>
-      <c r="S63" s="10"/>
-      <c r="T63" s="12"/>
-      <c r="U63" s="10"/>
-      <c r="V63" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="W63" s="41"/>
-      <c r="X63" s="41"/>
-      <c r="Y63" s="10"/>
-      <c r="Z63" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA63" s="12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
-      <c r="L64" s="5"/>
-      <c r="M64" s="5"/>
-      <c r="N64" s="5"/>
-      <c r="O64" s="5"/>
-      <c r="P64" s="5"/>
-      <c r="Q64" s="5"/>
-      <c r="R64" s="5"/>
-      <c r="S64" s="13"/>
-      <c r="T64" s="14"/>
-      <c r="U64" s="5"/>
-      <c r="V64" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="W64" s="5"/>
-      <c r="X64" s="5"/>
-      <c r="Y64" s="16"/>
-      <c r="Z64" s="5"/>
-      <c r="AA64" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
-      <c r="L65" s="5"/>
-      <c r="M65" s="5"/>
-      <c r="N65" s="5"/>
-      <c r="O65" s="5"/>
-      <c r="P65" s="5"/>
-      <c r="Q65" s="5" t="str">
-        <f>'IR-DED'!$B$19</f>
-        <v>EVIDENCE_ID</v>
-      </c>
-      <c r="R65" s="5" t="str">
-        <f>'IR-DED'!$C$19</f>
-        <v>Evidence Identifier</v>
-      </c>
-      <c r="S65" s="5" t="str">
-        <f>'IR-DED'!$D$19</f>
-        <v>The Identifier of an evidence.</v>
-      </c>
-      <c r="T65" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="U65" s="45" t="s">
-        <v>149</v>
-      </c>
-      <c r="V65" s="17">
-        <v>1</v>
-      </c>
-      <c r="W65" s="5" t="str">
-        <f>'IR-DED'!$E$19</f>
-        <v>EvidenceIdentifierType</v>
-      </c>
-      <c r="X65" s="5" t="str">
-        <f>'IR-DED'!$F$19</f>
-        <v>ccts:Identifier</v>
-      </c>
-      <c r="Y65" s="20"/>
-      <c r="Z65" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA65" s="5"/>
-    </row>
-    <row r="66" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="5"/>
-      <c r="L66" s="5"/>
-      <c r="M66" s="5"/>
-      <c r="N66" s="5"/>
-      <c r="O66" s="5"/>
-      <c r="P66" s="5"/>
-      <c r="Q66" s="5" t="str">
-        <f>'IR-DED'!$B$20</f>
-        <v>DOWNLOAD_URL</v>
-      </c>
-      <c r="R66" s="5" t="str">
-        <f>'IR-DED'!$C$20</f>
-        <v>Download URL</v>
-      </c>
-      <c r="S66" s="5" t="str">
-        <f>'IR-DED'!$D$20</f>
-        <v>The URL where to download an evidence from.</v>
-      </c>
-      <c r="T66" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="U66" s="45" t="s">
-        <v>180</v>
-      </c>
-      <c r="V66" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="W66" s="5" t="str">
-        <f>'IR-DED'!$E$20</f>
-        <v>DownloadURL</v>
-      </c>
-      <c r="X66" s="5" t="str">
-        <f>'IR-DED'!$F$20</f>
-        <v>ccts:URI</v>
-      </c>
-      <c r="Y66" s="20"/>
-      <c r="Z66" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA66" s="5"/>
-    </row>
-    <row r="67" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="E67" s="31"/>
-      <c r="F67" s="31"/>
-      <c r="G67" s="31"/>
-      <c r="H67" s="31"/>
-      <c r="I67" s="31"/>
-      <c r="J67" s="31"/>
-      <c r="K67" s="31"/>
-      <c r="L67" s="31"/>
-      <c r="M67" s="31"/>
-      <c r="N67" s="31"/>
-      <c r="O67" s="31"/>
-      <c r="P67" s="31"/>
-      <c r="Q67" s="31" t="str">
-        <f>'CONSTRAINTS-DED'!$B$16</f>
-        <v>EVIDENCE_TYPE</v>
-      </c>
-      <c r="R67" s="31" t="str">
-        <f>'CONSTRAINTS-DED'!$C$16</f>
-        <v>Evidence Type</v>
-      </c>
-      <c r="S67" s="31" t="str">
-        <f>'CONSTRAINTS-DED'!$D$16</f>
-        <v>Type of evidence.</v>
-      </c>
-      <c r="T67" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="U67" s="32" t="s">
-        <v>193</v>
-      </c>
-      <c r="V67" s="33">
-        <v>1</v>
-      </c>
-      <c r="W67" s="31" t="str">
-        <f>'CONSTRAINTS-DED'!$E$16</f>
-        <v>EvidenceType</v>
-      </c>
-      <c r="X67" s="31" t="str">
-        <f>'CONSTRAINTS-DED'!$F$16</f>
-        <v>skos:Concept</v>
-      </c>
-      <c r="Y67" s="34"/>
-      <c r="Z67" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA67" s="31"/>
-    </row>
-    <row r="68" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="E68" s="31"/>
-      <c r="F68" s="31"/>
-      <c r="G68" s="31"/>
-      <c r="H68" s="31"/>
-      <c r="I68" s="31"/>
-      <c r="J68" s="31"/>
-      <c r="K68" s="31"/>
-      <c r="L68" s="31"/>
-      <c r="M68" s="31"/>
-      <c r="N68" s="31"/>
-      <c r="O68" s="31"/>
-      <c r="P68" s="31"/>
-      <c r="Q68" s="31" t="str">
-        <f>'CONSTRAINTS-DED'!$B$17</f>
-        <v>EVIDENCE_SCHEME_VERSION</v>
-      </c>
-      <c r="R68" s="31" t="str">
-        <f>'CONSTRAINTS-DED'!$C$17</f>
-        <v>Evidence Scheme Version</v>
-      </c>
-      <c r="S68" s="31" t="str">
-        <f>'CONSTRAINTS-DED'!$D$17</f>
-        <v>The version identifier of the model (or template) used to express the evidence.</v>
-      </c>
-      <c r="T68" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="U68" s="43" t="s">
-        <v>171</v>
-      </c>
-      <c r="V68" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="W68" s="31" t="str">
-        <f>'CONSTRAINTS-DED'!$E$17</f>
-        <v>EvidenceSchemeVersionIdentifier</v>
-      </c>
-      <c r="X68" s="31" t="str">
-        <f>'CONSTRAINTS-DED'!$F$17</f>
-        <v>ccts:Identifier</v>
-      </c>
-      <c r="Y68" s="34"/>
-      <c r="Z68" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA68" s="31"/>
-    </row>
-    <row r="69" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
-      <c r="K69" s="5"/>
-      <c r="L69" s="5"/>
-      <c r="M69" s="5"/>
-      <c r="N69" s="5"/>
-      <c r="O69" s="5"/>
-      <c r="P69" s="5"/>
-      <c r="Q69" s="5"/>
-      <c r="R69" s="5"/>
-      <c r="S69" s="5"/>
-      <c r="T69" s="14"/>
-      <c r="U69" s="5"/>
-      <c r="V69" s="14"/>
-      <c r="W69" s="5"/>
-      <c r="X69" s="5"/>
-      <c r="Y69" s="5"/>
-      <c r="Z69" s="5"/>
-      <c r="AA69" s="5"/>
-    </row>
-    <row r="70" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
-      <c r="B70" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
-      <c r="M70" s="3"/>
-      <c r="N70" s="3"/>
-      <c r="O70" s="3"/>
-      <c r="P70" s="3"/>
-      <c r="Q70" s="3"/>
-      <c r="R70" s="3"/>
-      <c r="S70" s="3"/>
-      <c r="T70" s="3"/>
-      <c r="U70" s="3"/>
-      <c r="V70" s="4"/>
-      <c r="W70" s="3"/>
-      <c r="X70" s="3"/>
-      <c r="Y70" s="3"/>
-      <c r="Z70" s="3"/>
-      <c r="AA70" s="3"/>
-    </row>
+    <row r="61" spans="1:27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U66" r:id="rId1"/>
-    <hyperlink ref="U65" r:id="rId2"/>
+    <hyperlink ref="U42" r:id="rId1"/>
+    <hyperlink ref="U41" r:id="rId2"/>
     <hyperlink ref="U56" r:id="rId3"/>
     <hyperlink ref="U55" r:id="rId4"/>
-    <hyperlink ref="U42" r:id="rId5"/>
-    <hyperlink ref="U41" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
